--- a/benchmarks/Performance.xlsx
+++ b/benchmarks/Performance.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maciek/Repos/pwc/benchmarks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ala/Documents/Thesis/mgr/Msc-Maciek/parallel-wiki-classifier/benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,9 +206,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -218,6 +215,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent3" xfId="1" builtinId="40"/>
@@ -280,7 +280,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -888,11 +887,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2102260480"/>
-        <c:axId val="2101614896"/>
+        <c:axId val="-2127197088"/>
+        <c:axId val="-2143725712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2102260480"/>
+        <c:axId val="-2127197088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +928,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -996,7 +994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101614896"/>
+        <c:crossAx val="-2143725712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1004,7 +1002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101614896"/>
+        <c:axId val="-2143725712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1053,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1116,7 +1113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102260480"/>
+        <c:crossAx val="-2127197088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1130,7 +1127,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1841,6 +1837,95 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>100000 documents</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VM-impr (2)'!$C$20:$V$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>186.7863423423424</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.93647747747748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.73488738738738</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.79955855855854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.57026576576576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110.0841711711712</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>121.8231351351351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126.2202972972973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134.7578963963964</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134.566463963964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>148.1846936936937</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171.8817207207207</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>174.7941891891892</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>167.160490990991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>183.3377882882883</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190.2261801801802</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>172.8308738738739</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>193.2154864864865</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>176.315509009009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>184.5183333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1850,11 +1935,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1676188528"/>
-        <c:axId val="1676236336"/>
+        <c:axId val="-2128401792"/>
+        <c:axId val="-2127658400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1676188528"/>
+        <c:axId val="-2128401792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,7 +2009,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1958,7 +2043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676236336"/>
+        <c:crossAx val="-2127658400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1966,8 +2051,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1676236336"/>
+        <c:axId val="-2127658400"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2078,7 +2164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676188528"/>
+        <c:crossAx val="-2128401792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2802,6 +2888,95 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>100000 documents</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VM-impr (2)'!$C$27:$V$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>66.09303153153155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.2879009009009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.36511711711709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.71258558558561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.20364864864863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.7911981981982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.40686036036035</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.27585135135136</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.83574324324324</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.12072972972972</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.929490990991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.30897747747748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.014490990991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.73688288288289</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.05038288288288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.80854054054056</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.06969369369369</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.61172522522524</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.21515315315316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.07050000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2811,11 +2986,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1676439088"/>
-        <c:axId val="1676484976"/>
+        <c:axId val="-2126241968"/>
+        <c:axId val="-2126240208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1676439088"/>
+        <c:axId val="-2126241968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2919,7 +3094,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676484976"/>
+        <c:crossAx val="-2126240208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2927,8 +3102,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1676484976"/>
+        <c:axId val="-2126240208"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3039,7 +3215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676439088"/>
+        <c:crossAx val="-2126241968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3763,6 +3939,95 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>100000 documents</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VM-impr (2)'!$C$34:$V$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1824.461932432433</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1687.85368018018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1123.593972972973</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>795.0120630630632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>596.3280315315315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>693.1382117117118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>621.5295900900901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>518.1248738738738</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>497.5588288288288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>547.6707972972973</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450.6970630630631</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>433.1864144144143</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>478.0479054054053</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>597.3118108108109</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>509.1203603603603</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>647.129509009009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>694.111283783784</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>519.4818018018018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>542.979779279279</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>571.9659099099098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3772,11 +4037,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1676566688"/>
-        <c:axId val="1676555616"/>
+        <c:axId val="-2127155136"/>
+        <c:axId val="-2127144656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1676566688"/>
+        <c:axId val="-2127155136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3846,7 +4111,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3880,7 +4145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676555616"/>
+        <c:crossAx val="-2127144656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3888,8 +4153,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1676555616"/>
+        <c:axId val="-2127144656"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4000,7 +4266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676566688"/>
+        <c:crossAx val="-2127155136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4721,6 +4987,95 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>100000 documents</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VM-impr (2)'!$C$41:$V$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10275.57864864865</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6007.720666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4210.159135135136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3283.779995495495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2527.396058558558</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2694.082702702703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2250.949864864865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1671.970923423424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2258.437756756757</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2761.456626126126</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1543.640166666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2717.970112612613</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2223.466445945945</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2648.004941441441</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024.858013513513</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2331.795130630631</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2325.192828828829</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1583.083761261261</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2730.524022522523</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2233.929873873874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4730,11 +5085,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1675605280"/>
-        <c:axId val="1669389792"/>
+        <c:axId val="-2127676944"/>
+        <c:axId val="-2128391168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1675605280"/>
+        <c:axId val="-2127676944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4838,7 +5193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1669389792"/>
+        <c:crossAx val="-2128391168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4846,9 +5201,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1669389792"/>
+        <c:axId val="-2128391168"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
+          <c:max val="20000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4958,7 +5315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1675605280"/>
+        <c:crossAx val="-2127676944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5682,6 +6039,95 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>100000 documents</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VM-impr (2)'!$C$48:$V$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10275.55968918919</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6007.67212162162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4210.155135135135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3283.775995495496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2632.441608108108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2588.805094594594</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2250.841815315315</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1986.951018018018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2153.339662162162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2236.309927927928</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003.634184684685</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2192.67381981982</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2223.507990990991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2227.758198198198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2077.543342342342</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2226.727621621622</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2325.039234234234</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2098.918594594594</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2205.167225225225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2233.986378378378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5691,11 +6137,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1669486464"/>
-        <c:axId val="1669509280"/>
+        <c:axId val="-2127528560"/>
+        <c:axId val="-2127534784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1669486464"/>
+        <c:axId val="-2127528560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5799,7 +6245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1669509280"/>
+        <c:crossAx val="-2127534784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5807,9 +6253,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1669509280"/>
+        <c:axId val="-2127534784"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
+          <c:max val="20000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5919,7 +6367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1669486464"/>
+        <c:crossAx val="-2127528560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6045,7 +6493,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6653,11 +7100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2122233888"/>
-        <c:axId val="2101628800"/>
+        <c:axId val="-2129013088"/>
+        <c:axId val="-2140990384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2122233888"/>
+        <c:axId val="-2129013088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6694,7 +7141,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6761,7 +7207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101628800"/>
+        <c:crossAx val="-2140990384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6769,7 +7215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101628800"/>
+        <c:axId val="-2140990384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6820,7 +7266,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6881,7 +7326,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122233888"/>
+        <c:crossAx val="-2129013088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6895,7 +7340,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7007,7 +7451,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7615,11 +8058,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2115863600"/>
-        <c:axId val="1649113136"/>
+        <c:axId val="-2140403104"/>
+        <c:axId val="-2141085632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2115863600"/>
+        <c:axId val="-2140403104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7656,7 +8099,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7723,7 +8165,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1649113136"/>
+        <c:crossAx val="-2141085632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7731,7 +8173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1649113136"/>
+        <c:axId val="-2141085632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7782,7 +8224,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7843,7 +8284,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115863600"/>
+        <c:crossAx val="-2140403104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7857,7 +8298,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7968,7 +8408,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8576,11 +9015,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2114475616"/>
-        <c:axId val="-2115650640"/>
+        <c:axId val="-2128932704"/>
+        <c:axId val="-2143704352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114475616"/>
+        <c:axId val="-2128932704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8617,7 +9056,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8684,7 +9122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115650640"/>
+        <c:crossAx val="-2143704352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8692,7 +9130,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115650640"/>
+        <c:axId val="-2143704352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8743,7 +9181,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8804,7 +9241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114475616"/>
+        <c:crossAx val="-2128932704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8818,7 +9255,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8929,7 +9365,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9537,11 +9972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1651064928"/>
-        <c:axId val="2122141824"/>
+        <c:axId val="-2127385232"/>
+        <c:axId val="-2127400144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1651064928"/>
+        <c:axId val="-2127385232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9578,7 +10013,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9645,7 +10079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122141824"/>
+        <c:crossAx val="-2127400144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9653,7 +10087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122141824"/>
+        <c:axId val="-2127400144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9704,7 +10138,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9765,7 +10198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1651064928"/>
+        <c:crossAx val="-2127385232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9779,7 +10212,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9887,7 +10319,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10495,11 +10926,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2144786672"/>
-        <c:axId val="2115442240"/>
+        <c:axId val="-2126804832"/>
+        <c:axId val="-2126663664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2144786672"/>
+        <c:axId val="-2126804832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10536,7 +10967,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10603,7 +11033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115442240"/>
+        <c:crossAx val="-2126663664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10611,7 +11041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115442240"/>
+        <c:axId val="-2126663664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10662,7 +11092,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10723,7 +11152,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2144786672"/>
+        <c:crossAx val="-2126804832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10737,7 +11166,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10848,7 +11276,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11456,11 +11883,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1691684432"/>
-        <c:axId val="1709091936"/>
+        <c:axId val="-2126564192"/>
+        <c:axId val="-2126558000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1691684432"/>
+        <c:axId val="-2126564192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11497,7 +11924,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11564,7 +11990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1709091936"/>
+        <c:crossAx val="-2126558000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11572,7 +11998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1709091936"/>
+        <c:axId val="-2126558000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11623,7 +12049,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11684,7 +12109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691684432"/>
+        <c:crossAx val="-2126564192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11698,7 +12123,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12409,6 +12833,95 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>100000 documents</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VM-impr (2)'!$C$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>584.9001621621621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>325.2236036036036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>265.8056081081081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>232.1052882882882</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>234.5648423423423</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>205.934072072072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.09606756756756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>154.4535855855856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.84183783783784</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103.2133603603604</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>138.2523738738739</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>164.9964954954955</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>223.7216756756757</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200.6338378378378</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>206.1480810810811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>239.7240585585586</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>239.0339954954955</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>245.2732117117117</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>252.2009684684685</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>263.3753423423424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -12418,11 +12931,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1694399072"/>
-        <c:axId val="1694407968"/>
+        <c:axId val="-2143840544"/>
+        <c:axId val="-2140172224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1694399072"/>
+        <c:axId val="-2143840544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12526,7 +13039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1694407968"/>
+        <c:crossAx val="-2140172224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12534,8 +13047,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1694407968"/>
+        <c:axId val="-2140172224"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -12646,7 +13160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1694399072"/>
+        <c:crossAx val="-2143840544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13371,6 +13885,95 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>100000 documents</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VM-impr (2)'!$C$13:$V$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7613.31822072072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3874.37045945946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2711.65554954955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2135.1465</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1685.77481981982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1561.857441441441</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1425.986162162162</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1168.87640990991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1421.345355855856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1433.738576576576</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1247.570563063063</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1408.300211711712</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1326.92972972973</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1247.915175675676</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1165.88672972973</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1132.839333333334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1197.993387387387</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1123.33636936937</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1216.455815315315</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1195.056292792793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -13380,11 +13983,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1675946416"/>
-        <c:axId val="1675989056"/>
+        <c:axId val="2123826272"/>
+        <c:axId val="-2127678784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1675946416"/>
+        <c:axId val="2123826272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13454,7 +14057,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -13488,7 +14091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1675989056"/>
+        <c:crossAx val="-2127678784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13496,8 +14099,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1675989056"/>
+        <c:axId val="-2127678784"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -13608,7 +14212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1675946416"/>
+        <c:crossAx val="2123826272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22224,7 +22828,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -22241,7 +22845,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="8"/>
       <c r="B3">
         <v>2</v>
       </c>
@@ -22256,7 +22860,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="8"/>
       <c r="B4">
         <v>3</v>
       </c>
@@ -22271,7 +22875,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="8"/>
       <c r="B5">
         <v>4</v>
       </c>
@@ -22286,7 +22890,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="8"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -22301,7 +22905,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="8"/>
       <c r="B7">
         <v>6</v>
       </c>
@@ -22316,7 +22920,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="8"/>
       <c r="B8">
         <v>7</v>
       </c>
@@ -22325,13 +22929,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="8"/>
       <c r="B9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B10">
@@ -22348,7 +22952,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="8"/>
       <c r="B11">
         <v>2</v>
       </c>
@@ -22363,7 +22967,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="8"/>
       <c r="B12">
         <v>3</v>
       </c>
@@ -22378,7 +22982,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="8"/>
       <c r="B13">
         <v>4</v>
       </c>
@@ -22393,7 +22997,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="8"/>
       <c r="B14">
         <v>5</v>
       </c>
@@ -22408,7 +23012,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="8"/>
       <c r="B15">
         <v>6</v>
       </c>
@@ -22423,7 +23027,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="8"/>
       <c r="B16">
         <v>7</v>
       </c>
@@ -22432,13 +23036,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="8"/>
       <c r="B17">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B18">
@@ -22455,7 +23059,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="8"/>
       <c r="B19">
         <v>2</v>
       </c>
@@ -22470,7 +23074,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="A20" s="8"/>
       <c r="B20">
         <v>3</v>
       </c>
@@ -22485,7 +23089,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="A21" s="8"/>
       <c r="B21">
         <v>4</v>
       </c>
@@ -22500,7 +23104,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="A22" s="8"/>
       <c r="B22">
         <v>5</v>
       </c>
@@ -22515,7 +23119,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="8"/>
       <c r="B23">
         <v>6</v>
       </c>
@@ -22530,7 +23134,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="8"/>
       <c r="B24">
         <v>7</v>
       </c>
@@ -22539,13 +23143,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="8"/>
       <c r="B25">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B26">
@@ -22562,7 +23166,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="8"/>
       <c r="B27">
         <v>2</v>
       </c>
@@ -22577,7 +23181,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="A28" s="8"/>
       <c r="B28">
         <v>3</v>
       </c>
@@ -22592,7 +23196,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+      <c r="A29" s="8"/>
       <c r="B29">
         <v>4</v>
       </c>
@@ -22607,7 +23211,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="8"/>
       <c r="B30">
         <v>5</v>
       </c>
@@ -22622,7 +23226,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+      <c r="A31" s="8"/>
       <c r="B31">
         <v>6</v>
       </c>
@@ -22637,7 +23241,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
+      <c r="A32" s="8"/>
       <c r="B32">
         <v>7</v>
       </c>
@@ -22646,13 +23250,13 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+      <c r="A33" s="8"/>
       <c r="B33">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B34">
@@ -22672,7 +23276,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
+      <c r="A35" s="8"/>
       <c r="B35">
         <v>2</v>
       </c>
@@ -22687,7 +23291,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
+      <c r="A36" s="8"/>
       <c r="B36">
         <v>3</v>
       </c>
@@ -22702,7 +23306,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+      <c r="A37" s="8"/>
       <c r="B37">
         <v>4</v>
       </c>
@@ -22717,7 +23321,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
+      <c r="A38" s="8"/>
       <c r="B38">
         <v>5</v>
       </c>
@@ -22732,7 +23336,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
+      <c r="A39" s="8"/>
       <c r="B39">
         <v>6</v>
       </c>
@@ -22747,7 +23351,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
+      <c r="A40" s="8"/>
       <c r="B40">
         <v>7</v>
       </c>
@@ -22756,13 +23360,13 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+      <c r="A41" s="8"/>
       <c r="B41">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B42">
@@ -22773,7 +23377,7 @@
         <v>5.2270000000000003</v>
       </c>
       <c r="D42">
-        <f t="shared" ref="D42:E42" si="0">D2+D10+D18+D26+D34</f>
+        <f t="shared" ref="D42" si="0">D2+D10+D18+D26+D34</f>
         <v>7.2249999999999996</v>
       </c>
       <c r="E42">
@@ -22782,7 +23386,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
+      <c r="A43" s="8"/>
       <c r="B43">
         <v>2</v>
       </c>
@@ -22800,7 +23404,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
+      <c r="A44" s="8"/>
       <c r="B44">
         <v>3</v>
       </c>
@@ -22818,7 +23422,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
+      <c r="A45" s="8"/>
       <c r="B45">
         <v>4</v>
       </c>
@@ -22836,7 +23440,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
+      <c r="A46" s="8"/>
       <c r="B46">
         <v>5</v>
       </c>
@@ -22854,7 +23458,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
+      <c r="A47" s="8"/>
       <c r="B47">
         <v>6</v>
       </c>
@@ -22872,7 +23476,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
+      <c r="A48" s="8"/>
       <c r="B48">
         <v>7</v>
       </c>
@@ -22890,7 +23494,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
+      <c r="A49" s="8"/>
       <c r="B49">
         <v>8</v>
       </c>
@@ -23002,7 +23606,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B2">
@@ -23070,7 +23674,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="8"/>
       <c r="B3">
         <v>100</v>
       </c>
@@ -23136,7 +23740,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="8"/>
       <c r="B4">
         <v>1000</v>
       </c>
@@ -23202,59 +23806,59 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="1">
         <v>10000</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1">
         <v>100000</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B7">
@@ -23322,7 +23926,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="8"/>
       <c r="B8">
         <v>100</v>
       </c>
@@ -23388,7 +23992,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="8"/>
       <c r="B9">
         <v>1000</v>
       </c>
@@ -23454,59 +24058,59 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="1">
         <v>10000</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="1">
         <v>100000</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B12">
@@ -23554,7 +24158,7 @@
       <c r="P12">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="R12">
@@ -23574,7 +24178,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="8"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -23640,7 +24244,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="8"/>
       <c r="B14">
         <v>1000</v>
       </c>
@@ -23706,59 +24310,59 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="1">
         <v>10000</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="1">
         <v>100000</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -23826,7 +24430,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="A18" s="8"/>
       <c r="B18">
         <v>100</v>
       </c>
@@ -23892,7 +24496,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="8"/>
       <c r="B19">
         <v>1000</v>
       </c>
@@ -23958,19 +24562,19 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B22">
@@ -24038,7 +24642,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="8"/>
       <c r="B23">
         <v>100</v>
       </c>
@@ -24104,7 +24708,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="8"/>
       <c r="B24">
         <v>1000</v>
       </c>
@@ -24170,19 +24774,19 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B27">
@@ -24250,7 +24854,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="A28" s="8"/>
       <c r="B28">
         <v>100</v>
       </c>
@@ -24316,7 +24920,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+      <c r="A29" s="8"/>
       <c r="B29">
         <v>1000</v>
       </c>
@@ -24382,14 +24986,14 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="1">
         <v>100000</v>
       </c>
     </row>
@@ -24420,7 +25024,7 @@
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C1">
@@ -24485,10 +25089,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>10</v>
       </c>
       <c r="C2">
@@ -24553,8 +25157,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3">
         <v>100</v>
       </c>
       <c r="C3">
@@ -24619,8 +25223,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3">
         <v>1000</v>
       </c>
       <c r="C4">
@@ -24685,8 +25289,8 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3">
         <v>10000</v>
       </c>
       <c r="C5">
@@ -24771,8 +25375,8 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3">
         <v>100000</v>
       </c>
       <c r="C6">
@@ -24857,182 +25461,182 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2">
-        <f>SLOPE(C2:C4,$B$2:$B$4)</f>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:V7" si="2">SLOPE(C2:C4,$B$2:$B$4)</f>
         <v>5.8327327327327323E-3</v>
       </c>
-      <c r="D7" s="2">
-        <f>SLOPE(D2:D4,$B$2:$B$4)</f>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
         <v>3.236036036036036E-3</v>
       </c>
-      <c r="E7" s="2">
-        <f>SLOPE(E2:E4,$B$2:$B$4)</f>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
         <v>2.6421921921921921E-3</v>
       </c>
-      <c r="F7" s="2">
-        <f>SLOPE(F2:F4,$B$2:$B$4)</f>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
         <v>2.3051051051051047E-3</v>
       </c>
-      <c r="G7" s="2">
-        <f>SLOPE(G2:G4,$B$2:$B$4)</f>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
         <v>2.3289789789789788E-3</v>
       </c>
-      <c r="H7" s="2">
-        <f>SLOPE(H2:H4,$B$2:$B$4)</f>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
         <v>2.0429429429429428E-3</v>
       </c>
-      <c r="I7" s="2">
-        <f>SLOPE(I2:I4,$B$2:$B$4)</f>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
         <v>5.9234234234234223E-4</v>
       </c>
-      <c r="J7" s="2">
-        <f>SLOPE(J2:J4,$B$2:$B$4)</f>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
         <v>1.5225225225225223E-3</v>
       </c>
-      <c r="K7" s="2">
-        <f>SLOPE(K2:K4,$B$2:$B$4)</f>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
         <v>7.8948948948948951E-4</v>
       </c>
-      <c r="L7" s="2">
-        <f>SLOPE(L2:L4,$B$2:$B$4)</f>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
         <v>1.0036036036036036E-3</v>
       </c>
-      <c r="M7" s="2">
-        <f>SLOPE(M2:M4,$B$2:$B$4)</f>
+      <c r="M7" s="1">
+        <f t="shared" si="2"/>
         <v>1.3554054054054051E-3</v>
       </c>
-      <c r="N7" s="2">
-        <f>SLOPE(N2:N4,$B$2:$B$4)</f>
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
         <v>1.6216216216216215E-3</v>
       </c>
-      <c r="O7" s="2">
-        <f>SLOPE(O2:O4,$B$2:$B$4)</f>
+      <c r="O7" s="1">
+        <f t="shared" si="2"/>
         <v>2.2123123123123124E-3</v>
       </c>
-      <c r="P7" s="2">
-        <f>SLOPE(P2:P4,$B$2:$B$4)</f>
+      <c r="P7" s="1">
+        <f t="shared" si="2"/>
         <v>1.9783783783783784E-3</v>
       </c>
-      <c r="Q7" s="2">
-        <f>SLOPE(Q2:Q4,$B$2:$B$4)</f>
+      <c r="Q7" s="1">
+        <f t="shared" si="2"/>
         <v>2.0330330330330334E-3</v>
       </c>
-      <c r="R7" s="2">
-        <f>SLOPE(R2:R4,$B$2:$B$4)</f>
+      <c r="R7" s="1">
+        <f t="shared" si="2"/>
         <v>2.3689189189189195E-3</v>
       </c>
-      <c r="S7" s="2">
-        <f>SLOPE(S2:S4,$B$2:$B$4)</f>
+      <c r="S7" s="1">
+        <f t="shared" si="2"/>
         <v>2.3605105105105103E-3</v>
       </c>
-      <c r="T7" s="2">
-        <f>SLOPE(T2:T4,$B$2:$B$4)</f>
+      <c r="T7" s="1">
+        <f t="shared" si="2"/>
         <v>2.4226726726726726E-3</v>
       </c>
-      <c r="U7" s="2">
-        <f>SLOPE(U2:U4,$B$2:$B$4)</f>
+      <c r="U7" s="1">
+        <f t="shared" si="2"/>
         <v>2.4902402402402404E-3</v>
       </c>
-      <c r="V7" s="2">
-        <f>SLOPE(V2:V4,$B$2:$B$4)</f>
+      <c r="V7" s="1">
+        <f t="shared" si="2"/>
         <v>2.6012012012012011E-3</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f>INTERCEPT(C2:C4,$B$2:$B$4)</f>
         <v>1.6268888888888893</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" ref="D8:V8" si="2">INTERCEPT(D2:D4,$B$2:$B$4)</f>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:V8" si="3">INTERCEPT(D2:D4,$B$2:$B$4)</f>
         <v>1.62</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="2"/>
+      <c r="E8" s="1">
+        <f t="shared" si="3"/>
         <v>1.5863888888888891</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="2"/>
+      <c r="F8" s="1">
+        <f t="shared" si="3"/>
         <v>1.5947777777777778</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="2"/>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
         <v>1.6669444444444443</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" si="2"/>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
         <v>1.6397777777777778</v>
       </c>
-      <c r="I8" s="2">
-        <f t="shared" si="2"/>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
         <v>2.8618333333333332</v>
       </c>
-      <c r="J8" s="2">
-        <f t="shared" si="2"/>
+      <c r="J8" s="1">
+        <f t="shared" si="3"/>
         <v>2.2013333333333334</v>
       </c>
-      <c r="K8" s="2">
-        <f t="shared" si="2"/>
+      <c r="K8" s="1">
+        <f t="shared" si="3"/>
         <v>2.8928888888888888</v>
       </c>
-      <c r="L8" s="2">
-        <f t="shared" si="2"/>
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
         <v>2.8530000000000002</v>
       </c>
-      <c r="M8" s="2">
-        <f t="shared" si="2"/>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
         <v>2.7118333333333329</v>
       </c>
-      <c r="N8" s="2">
-        <f t="shared" si="2"/>
+      <c r="N8" s="1">
+        <f t="shared" si="3"/>
         <v>2.8343333333333334</v>
       </c>
-      <c r="O8" s="2">
-        <f t="shared" si="2"/>
+      <c r="O8" s="1">
+        <f t="shared" si="3"/>
         <v>2.490444444444444</v>
       </c>
-      <c r="P8" s="2">
-        <f t="shared" si="2"/>
+      <c r="P8" s="1">
+        <f t="shared" si="3"/>
         <v>2.7960000000000003</v>
       </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q8" s="1">
+        <f t="shared" si="3"/>
         <v>2.8447777777777778</v>
       </c>
-      <c r="R8" s="2">
-        <f t="shared" si="2"/>
+      <c r="R8" s="1">
+        <f t="shared" si="3"/>
         <v>2.8321666666666672</v>
       </c>
-      <c r="S8" s="2">
-        <f t="shared" si="2"/>
+      <c r="S8" s="1">
+        <f t="shared" si="3"/>
         <v>2.9829444444444446</v>
       </c>
-      <c r="T8" s="2">
-        <f t="shared" si="2"/>
+      <c r="T8" s="1">
+        <f t="shared" si="3"/>
         <v>3.0059444444444443</v>
       </c>
-      <c r="U8" s="2">
-        <f t="shared" si="2"/>
+      <c r="U8" s="1">
+        <f t="shared" si="3"/>
         <v>3.1769444444444446</v>
       </c>
-      <c r="V8" s="2">
-        <f t="shared" si="2"/>
+      <c r="V8" s="1">
+        <f t="shared" si="3"/>
         <v>3.2552222222222227</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>10</v>
       </c>
       <c r="C9">
@@ -25097,8 +25701,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3">
         <v>100</v>
       </c>
       <c r="C10">
@@ -25163,8 +25767,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3">
         <v>1000</v>
       </c>
       <c r="C11">
@@ -25229,8 +25833,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3">
         <v>10000</v>
       </c>
       <c r="C12">
@@ -25238,85 +25842,85 @@
         <v>758.16957207207201</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:V12" si="3">$B$12*D14+D15</f>
+        <f t="shared" ref="D12:V12" si="4">$B$12*D14+D15</f>
         <v>385.85694594594594</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>270.06095495495498</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>212.6465</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>167.936981981982</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>155.56014414414412</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>142.04021621621621</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>116.45749099099096</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>141.57508558558558</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>142.81965765765764</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>124.3138063063063</v>
       </c>
       <c r="N12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>140.25967117117122</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>132.17297297297296</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>124.30706756756757</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>116.12997297297298</v>
       </c>
       <c r="R12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>112.83933333333334</v>
       </c>
       <c r="S12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119.34473873873874</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>111.90393693693696</v>
       </c>
       <c r="U12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>121.17203153153152</v>
       </c>
       <c r="V12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119.04277927927929</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="4">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3">
         <v>100000</v>
       </c>
       <c r="C13">
@@ -25324,259 +25928,259 @@
         <v>7613.3182207207201</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:V13" si="4">$B$13*D14+D15</f>
+        <f t="shared" ref="D13:V13" si="5">$B$13*D14+D15</f>
         <v>3874.3704594594597</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2711.6555495495495</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2135.1465000000003</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1685.7748198198201</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1561.8574414414413</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1425.9861621621621</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1168.8764099099096</v>
       </c>
       <c r="K13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1421.345355855856</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1433.7385765765764</v>
       </c>
       <c r="M13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1247.570563063063</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1408.3002117117119</v>
       </c>
       <c r="O13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1326.9297297297298</v>
       </c>
       <c r="P13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1247.9151756756758</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1165.8867297297297</v>
       </c>
       <c r="R13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1132.8393333333336</v>
       </c>
       <c r="S13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1197.9933873873874</v>
       </c>
       <c r="T13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1123.3363693693695</v>
       </c>
       <c r="U13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1216.455815315315</v>
       </c>
       <c r="V13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1195.0562927927929</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <f>SLOPE(C9:C11,$B$9:$B$11)</f>
         <v>7.6168318318318315E-2</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:V14" si="5">SLOPE(D9:D11,$B$9:$B$11)</f>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:V14" si="6">SLOPE(D9:D11,$B$9:$B$11)</f>
         <v>3.8761261261261261E-2</v>
       </c>
-      <c r="E14" s="2">
-        <f t="shared" si="5"/>
+      <c r="E14" s="1">
+        <f t="shared" si="6"/>
         <v>2.7128828828828829E-2</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="5"/>
+      <c r="F14" s="1">
+        <f t="shared" si="6"/>
         <v>2.1361111111111112E-2</v>
       </c>
-      <c r="G14" s="2">
-        <f t="shared" si="5"/>
+      <c r="G14" s="1">
+        <f t="shared" si="6"/>
         <v>1.6864864864864867E-2</v>
       </c>
-      <c r="H14" s="2">
-        <f t="shared" si="5"/>
+      <c r="H14" s="1">
+        <f t="shared" si="6"/>
         <v>1.5625525525525524E-2</v>
       </c>
-      <c r="I14" s="2">
-        <f t="shared" si="5"/>
+      <c r="I14" s="1">
+        <f t="shared" si="6"/>
         <v>1.4266066066066067E-2</v>
       </c>
-      <c r="J14" s="2">
-        <f t="shared" si="5"/>
+      <c r="J14" s="1">
+        <f t="shared" si="6"/>
         <v>1.1693543543543541E-2</v>
       </c>
-      <c r="K14" s="2">
-        <f t="shared" si="5"/>
+      <c r="K14" s="1">
+        <f t="shared" si="6"/>
         <v>1.4219669669669671E-2</v>
       </c>
-      <c r="L14" s="2">
-        <f t="shared" si="5"/>
+      <c r="L14" s="1">
+        <f t="shared" si="6"/>
         <v>1.4343543543543542E-2</v>
       </c>
-      <c r="M14" s="2">
-        <f t="shared" si="5"/>
+      <c r="M14" s="1">
+        <f t="shared" si="6"/>
         <v>1.2480630630630631E-2</v>
       </c>
-      <c r="N14" s="2">
-        <f t="shared" si="5"/>
+      <c r="N14" s="1">
+        <f t="shared" si="6"/>
         <v>1.4089339339339342E-2</v>
       </c>
-      <c r="O14" s="2">
-        <f t="shared" si="5"/>
+      <c r="O14" s="1">
+        <f t="shared" si="6"/>
         <v>1.3275075075075075E-2</v>
       </c>
-      <c r="P14" s="2">
-        <f t="shared" si="5"/>
+      <c r="P14" s="1">
+        <f t="shared" si="6"/>
         <v>1.2484534534534535E-2</v>
       </c>
-      <c r="Q14" s="2">
-        <f t="shared" si="5"/>
+      <c r="Q14" s="1">
+        <f t="shared" si="6"/>
         <v>1.1663963963963964E-2</v>
       </c>
-      <c r="R14" s="2">
-        <f t="shared" si="5"/>
+      <c r="R14" s="1">
+        <f t="shared" si="6"/>
         <v>1.1333333333333334E-2</v>
       </c>
-      <c r="S14" s="2">
-        <f t="shared" si="5"/>
+      <c r="S14" s="1">
+        <f t="shared" si="6"/>
         <v>1.1984984984984985E-2</v>
       </c>
-      <c r="T14" s="2">
-        <f t="shared" si="5"/>
+      <c r="T14" s="1">
+        <f t="shared" si="6"/>
         <v>1.123813813813814E-2</v>
       </c>
-      <c r="U14" s="2">
-        <f t="shared" si="5"/>
+      <c r="U14" s="1">
+        <f t="shared" si="6"/>
         <v>1.2169819819819818E-2</v>
       </c>
-      <c r="V14" s="2">
-        <f t="shared" si="5"/>
+      <c r="V14" s="1">
+        <f t="shared" si="6"/>
         <v>1.1955705705705706E-2</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <f>INTERCEPT(C9:C11,$B$9:$B$11)</f>
         <v>-3.5136111111111106</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15:V15" si="6">INTERCEPT(D9:D11,$B$9:$B$11)</f>
+      <c r="D15" s="1">
+        <f t="shared" ref="D15:V15" si="7">INTERCEPT(D9:D11,$B$9:$B$11)</f>
         <v>-1.7556666666666683</v>
       </c>
-      <c r="E15" s="2">
-        <f t="shared" si="6"/>
+      <c r="E15" s="1">
+        <f t="shared" si="7"/>
         <v>-1.2273333333333341</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="6"/>
+      <c r="F15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.96461111111111109</v>
       </c>
-      <c r="G15" s="2">
-        <f t="shared" si="6"/>
+      <c r="G15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.71166666666666778</v>
       </c>
-      <c r="H15" s="2">
-        <f t="shared" si="6"/>
+      <c r="H15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.69511111111111035</v>
       </c>
-      <c r="I15" s="2">
-        <f t="shared" si="6"/>
+      <c r="I15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.62044444444444391</v>
       </c>
-      <c r="J15" s="2">
-        <f t="shared" si="6"/>
+      <c r="J15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.47794444444444384</v>
       </c>
-      <c r="K15" s="2">
-        <f t="shared" si="6"/>
+      <c r="K15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.62161111111111111</v>
       </c>
-      <c r="L15" s="2">
-        <f t="shared" si="6"/>
+      <c r="L15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.61577777777777687</v>
       </c>
-      <c r="M15" s="2">
-        <f t="shared" si="6"/>
+      <c r="M15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.4925000000000006</v>
       </c>
-      <c r="N15" s="2">
-        <f t="shared" si="6"/>
+      <c r="N15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.63372222222222341</v>
       </c>
-      <c r="O15" s="2">
-        <f t="shared" si="6"/>
+      <c r="O15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.57777777777777839</v>
       </c>
-      <c r="P15" s="2">
-        <f t="shared" si="6"/>
+      <c r="P15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.53827777777777719</v>
       </c>
-      <c r="Q15" s="2">
-        <f t="shared" si="6"/>
+      <c r="Q15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.50966666666666738</v>
       </c>
-      <c r="R15" s="2">
-        <f t="shared" si="6"/>
+      <c r="R15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.49399999999999977</v>
       </c>
-      <c r="S15" s="2">
-        <f t="shared" si="6"/>
+      <c r="S15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.5051111111111104</v>
       </c>
-      <c r="T15" s="2">
-        <f t="shared" si="6"/>
+      <c r="T15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.47744444444444412</v>
       </c>
-      <c r="U15" s="2">
-        <f t="shared" si="6"/>
+      <c r="U15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.52616666666666578</v>
       </c>
-      <c r="V15" s="2">
-        <f t="shared" si="6"/>
+      <c r="V15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.5142777777777785</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>10</v>
       </c>
       <c r="C16">
@@ -25621,7 +26225,7 @@
       <c r="P16">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="R16">
@@ -25641,8 +26245,8 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="4">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3">
         <v>100</v>
       </c>
       <c r="C17">
@@ -25707,8 +26311,8 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3">
         <v>1000</v>
       </c>
       <c r="C18">
@@ -25773,8 +26377,8 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3">
         <v>10000</v>
       </c>
       <c r="C19">
@@ -25782,85 +26386,85 @@
         <v>18.678234234234239</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:V19" si="7">$B$19*D21+D22</f>
+        <f t="shared" ref="D19:V19" si="8">$B$19*D21+D22</f>
         <v>9.2067477477477482</v>
       </c>
       <c r="E19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.5862387387387376</v>
       </c>
       <c r="F19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.096855855855857</v>
       </c>
       <c r="G19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.8810765765765769</v>
       </c>
       <c r="H19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.030117117117118</v>
       </c>
       <c r="I19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.201513513513511</v>
       </c>
       <c r="J19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.652729729729728</v>
       </c>
       <c r="K19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.501139639639643</v>
       </c>
       <c r="L19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.498896396396397</v>
       </c>
       <c r="M19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.860369369369367</v>
       </c>
       <c r="N19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.233072072072073</v>
       </c>
       <c r="O19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.52391891891892</v>
       </c>
       <c r="P19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.768599099099095</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18.378328828828828</v>
       </c>
       <c r="R19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19.064018018018018</v>
       </c>
       <c r="S19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.344387387387389</v>
       </c>
       <c r="T19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21.468639639639637</v>
       </c>
       <c r="U19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.7074009009009</v>
       </c>
       <c r="V19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18.518333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5">
         <v>100000</v>
       </c>
       <c r="C20">
@@ -25868,259 +26472,259 @@
         <v>186.78634234234238</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:V20" si="8">$B$20*D21+D22</f>
+        <f t="shared" ref="D20:V20" si="9">$B$20*D21+D22</f>
         <v>91.936477477477482</v>
       </c>
       <c r="E20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>85.734887387387388</v>
       </c>
       <c r="F20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>90.799558558558545</v>
       </c>
       <c r="G20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>98.570265765765768</v>
       </c>
       <c r="H20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>110.08417117117118</v>
       </c>
       <c r="I20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>121.82313513513512</v>
       </c>
       <c r="J20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>126.22029729729729</v>
       </c>
       <c r="K20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>134.75789639639643</v>
       </c>
       <c r="L20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>134.56646396396397</v>
       </c>
       <c r="M20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>148.18469369369367</v>
       </c>
       <c r="N20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>171.88172072072069</v>
       </c>
       <c r="O20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>174.79418918918921</v>
       </c>
       <c r="P20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>167.16049099099098</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>183.33778828828827</v>
       </c>
       <c r="R20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>190.22618018018019</v>
       </c>
       <c r="S20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>172.83087387387388</v>
       </c>
       <c r="T20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>214.22539639639638</v>
       </c>
       <c r="U20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>176.31550900900899</v>
       </c>
       <c r="V20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>184.51833333333332</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <f>SLOPE(C16:C18,$B$16:$B$18)</f>
         <v>1.8678678678678681E-3</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" ref="D21:V21" si="9">SLOPE(D16:D18,$B$16:$B$18)</f>
+      <c r="D21" s="1">
+        <f t="shared" ref="D21:V21" si="10">SLOPE(D16:D18,$B$16:$B$18)</f>
         <v>9.1921921921921926E-4</v>
       </c>
-      <c r="E21" s="2">
-        <f t="shared" si="9"/>
+      <c r="E21" s="1">
+        <f t="shared" si="10"/>
         <v>8.5720720720720714E-4</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="9"/>
+      <c r="F21" s="1">
+        <f t="shared" si="10"/>
         <v>9.0780780780780779E-4</v>
       </c>
-      <c r="G21" s="2">
-        <f t="shared" si="9"/>
+      <c r="G21" s="1">
+        <f t="shared" si="10"/>
         <v>9.8543543543543554E-4</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="9"/>
+      <c r="H21" s="1">
+        <f t="shared" si="10"/>
         <v>1.1006006006006007E-3</v>
       </c>
-      <c r="I21" s="2">
-        <f t="shared" si="9"/>
+      <c r="I21" s="1">
+        <f t="shared" si="10"/>
         <v>1.2180180180180178E-3</v>
       </c>
-      <c r="J21" s="2">
-        <f t="shared" si="9"/>
+      <c r="J21" s="1">
+        <f t="shared" si="10"/>
         <v>1.2618618618618618E-3</v>
       </c>
-      <c r="K21" s="2">
-        <f t="shared" si="9"/>
+      <c r="K21" s="1">
+        <f t="shared" si="10"/>
         <v>1.3472972972972976E-3</v>
       </c>
-      <c r="L21" s="2">
-        <f t="shared" si="9"/>
+      <c r="L21" s="1">
+        <f t="shared" si="10"/>
         <v>1.3451951951951953E-3</v>
       </c>
-      <c r="M21" s="2">
-        <f t="shared" si="9"/>
+      <c r="M21" s="1">
+        <f t="shared" si="10"/>
         <v>1.4813813813813813E-3</v>
       </c>
-      <c r="N21" s="2">
-        <f t="shared" si="9"/>
+      <c r="N21" s="1">
+        <f t="shared" si="10"/>
         <v>1.718318318318318E-3</v>
       </c>
-      <c r="O21" s="2">
-        <f t="shared" si="9"/>
+      <c r="O21" s="1">
+        <f t="shared" si="10"/>
         <v>1.7474474474474476E-3</v>
       </c>
-      <c r="P21" s="2">
-        <f t="shared" si="9"/>
+      <c r="P21" s="1">
+        <f t="shared" si="10"/>
         <v>1.6710210210210208E-3</v>
       </c>
-      <c r="Q21" s="2">
-        <f t="shared" si="9"/>
+      <c r="Q21" s="1">
+        <f t="shared" si="10"/>
         <v>1.8328828828828828E-3</v>
       </c>
-      <c r="R21" s="2">
-        <f t="shared" si="9"/>
+      <c r="R21" s="1">
+        <f t="shared" si="10"/>
         <v>1.9018018018018019E-3</v>
       </c>
-      <c r="S21" s="2">
-        <f t="shared" si="9"/>
+      <c r="S21" s="1">
+        <f t="shared" si="10"/>
         <v>1.7276276276276276E-3</v>
       </c>
-      <c r="T21" s="2">
-        <f t="shared" si="9"/>
+      <c r="T21" s="1">
+        <f t="shared" si="10"/>
         <v>2.1417417417417413E-3</v>
       </c>
-      <c r="U21" s="2">
-        <f t="shared" si="9"/>
+      <c r="U21" s="1">
+        <f t="shared" si="10"/>
         <v>1.7623123123123121E-3</v>
       </c>
-      <c r="V21" s="2">
-        <f t="shared" si="9"/>
+      <c r="V21" s="1">
+        <f t="shared" si="10"/>
         <v>1.8444444444444443E-3</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <f>INTERCEPT(C16:C18,$B$16:$B$18)</f>
         <v>-4.4444444444458053E-4</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" ref="D22:V22" si="10">INTERCEPT(D16:D18,$B$16:$B$18)</f>
+      <c r="D22" s="1">
+        <f t="shared" ref="D22:V22" si="11">INTERCEPT(D16:D18,$B$16:$B$18)</f>
         <v>1.4555555555555544E-2</v>
       </c>
-      <c r="E22" s="2">
-        <f t="shared" si="10"/>
+      <c r="E22" s="1">
+        <f t="shared" si="11"/>
         <v>1.4166666666666661E-2</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="10"/>
+      <c r="F22" s="1">
+        <f t="shared" si="11"/>
         <v>1.8777777777777782E-2</v>
       </c>
-      <c r="G22" s="2">
-        <f t="shared" si="10"/>
+      <c r="G22" s="1">
+        <f t="shared" si="11"/>
         <v>2.6722222222222147E-2</v>
       </c>
-      <c r="H22" s="2">
-        <f t="shared" si="10"/>
+      <c r="H22" s="1">
+        <f t="shared" si="11"/>
         <v>2.4111111111111083E-2</v>
       </c>
-      <c r="I22" s="2">
-        <f t="shared" si="10"/>
+      <c r="I22" s="1">
+        <f t="shared" si="11"/>
         <v>2.1333333333333371E-2</v>
       </c>
-      <c r="J22" s="2">
-        <f t="shared" si="10"/>
+      <c r="J22" s="1">
+        <f t="shared" si="11"/>
         <v>3.4111111111111148E-2</v>
       </c>
-      <c r="K22" s="2">
-        <f t="shared" si="10"/>
+      <c r="K22" s="1">
+        <f t="shared" si="11"/>
         <v>2.8166666666666618E-2</v>
       </c>
-      <c r="L22" s="2">
-        <f t="shared" si="10"/>
+      <c r="L22" s="1">
+        <f t="shared" si="11"/>
         <v>4.69444444444444E-2</v>
       </c>
-      <c r="M22" s="2">
-        <f t="shared" si="10"/>
+      <c r="M22" s="1">
+        <f t="shared" si="11"/>
         <v>4.6555555555555461E-2</v>
       </c>
-      <c r="N22" s="2">
-        <f t="shared" si="10"/>
+      <c r="N22" s="1">
+        <f t="shared" si="11"/>
         <v>4.9888888888888983E-2</v>
       </c>
-      <c r="O22" s="2">
-        <f t="shared" si="10"/>
+      <c r="O22" s="1">
+        <f t="shared" si="11"/>
         <v>4.9444444444444402E-2</v>
       </c>
-      <c r="P22" s="2">
-        <f t="shared" si="10"/>
+      <c r="P22" s="1">
+        <f t="shared" si="11"/>
         <v>5.8388888888888935E-2</v>
       </c>
-      <c r="Q22" s="2">
-        <f t="shared" si="10"/>
+      <c r="Q22" s="1">
+        <f t="shared" si="11"/>
         <v>4.9499999999999988E-2</v>
       </c>
-      <c r="R22" s="2">
-        <f t="shared" si="10"/>
+      <c r="R22" s="1">
+        <f t="shared" si="11"/>
         <v>4.6000000000000041E-2</v>
       </c>
-      <c r="S22" s="2">
-        <f t="shared" si="10"/>
+      <c r="S22" s="1">
+        <f t="shared" si="11"/>
         <v>6.8111111111111011E-2</v>
       </c>
-      <c r="T22" s="2">
-        <f t="shared" si="10"/>
+      <c r="T22" s="1">
+        <f t="shared" si="11"/>
         <v>5.122222222222228E-2</v>
       </c>
-      <c r="U22" s="2">
-        <f t="shared" si="10"/>
+      <c r="U22" s="1">
+        <f t="shared" si="11"/>
         <v>8.4277777777777896E-2</v>
       </c>
-      <c r="V22" s="2">
-        <f t="shared" si="10"/>
+      <c r="V22" s="1">
+        <f t="shared" si="11"/>
         <v>7.3888888888889004E-2</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>10</v>
       </c>
       <c r="C23">
@@ -26185,8 +26789,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3">
         <v>100</v>
       </c>
       <c r="C24">
@@ -26251,8 +26855,8 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3">
         <v>1000</v>
       </c>
       <c r="C25">
@@ -26317,8 +26921,8 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="4">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3">
         <v>10000</v>
       </c>
       <c r="C26">
@@ -26326,85 +26930,85 @@
         <v>8.2146531531531544</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:V26" si="11">$B$26*D28+D29</f>
+        <f t="shared" ref="D26:V26" si="12">$B$26*D28+D29</f>
         <v>4.4770900900900905</v>
       </c>
       <c r="E26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.9597117117117095</v>
       </c>
       <c r="F26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.6855585585585606</v>
       </c>
       <c r="G26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.4198648648648629</v>
       </c>
       <c r="H26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.4128198198198199</v>
       </c>
       <c r="I26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5825360360360348</v>
       </c>
       <c r="J26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5596351351351361</v>
       </c>
       <c r="K26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.4168243243243239</v>
       </c>
       <c r="L26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.3639729729729724</v>
       </c>
       <c r="M26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5375990990991002</v>
       </c>
       <c r="N26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.0792477477477478</v>
       </c>
       <c r="O26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.6225990990990997</v>
       </c>
       <c r="P26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.142288288288289</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.9557882882882875</v>
       </c>
       <c r="R26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.322054054054056</v>
       </c>
       <c r="S26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.7453693693693686</v>
       </c>
       <c r="T26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.4090225225225237</v>
       </c>
       <c r="U26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.3773153153153159</v>
       </c>
       <c r="V26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5705000000000009</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="4">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3">
         <v>100000</v>
       </c>
       <c r="C27">
@@ -26412,259 +27016,259 @@
         <v>66.093031531531551</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:V27" si="12">$B$27*D28+D29</f>
+        <f t="shared" ref="D27:V27" si="13">$B$27*D28+D29</f>
         <v>28.287900900900905</v>
       </c>
       <c r="E27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.365117117117091</v>
       </c>
       <c r="F27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30.712585585585607</v>
       </c>
       <c r="G27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.203648648648631</v>
       </c>
       <c r="H27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.791198198198199</v>
       </c>
       <c r="I27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.406860360360348</v>
       </c>
       <c r="J27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.275851351351363</v>
       </c>
       <c r="K27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.835743243243243</v>
       </c>
       <c r="L27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.120729729729721</v>
       </c>
       <c r="M27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18.929490990990999</v>
       </c>
       <c r="N27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14.308977477477477</v>
       </c>
       <c r="O27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.014490990990996</v>
       </c>
       <c r="P27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14.736882882882893</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13.050382882882877</v>
       </c>
       <c r="R27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16.808540540540555</v>
       </c>
       <c r="S27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21.069693693693686</v>
       </c>
       <c r="T27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.611725225225236</v>
       </c>
       <c r="U27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.21515315315316</v>
       </c>
       <c r="V27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.07050000000001</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <f>SLOPE(C23:C25,$B$23:$B$25)</f>
         <v>6.4309309309309331E-4</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" ref="D28:V28" si="13">SLOPE(D23:D25,$B$23:$B$25)</f>
+      <c r="D28" s="1">
+        <f t="shared" ref="D28:V28" si="14">SLOPE(D23:D25,$B$23:$B$25)</f>
         <v>2.645645645645646E-4</v>
       </c>
-      <c r="E28" s="2">
-        <f t="shared" si="13"/>
+      <c r="E28" s="1">
+        <f t="shared" si="14"/>
         <v>2.1561561561561534E-4</v>
       </c>
-      <c r="F28" s="2">
-        <f t="shared" si="13"/>
+      <c r="F28" s="1">
+        <f t="shared" si="14"/>
         <v>2.8918918918918941E-4</v>
       </c>
-      <c r="G28" s="2">
-        <f t="shared" si="13"/>
+      <c r="G28" s="1">
+        <f t="shared" si="14"/>
         <v>1.5315315315315298E-4</v>
       </c>
-      <c r="H28" s="2">
-        <f t="shared" si="13"/>
+      <c r="H28" s="1">
+        <f t="shared" si="14"/>
         <v>1.5975975975975976E-4</v>
       </c>
-      <c r="I28" s="2">
-        <f t="shared" si="13"/>
+      <c r="I28" s="1">
+        <f t="shared" si="14"/>
         <v>1.758258258258257E-4</v>
       </c>
-      <c r="J28" s="2">
-        <f t="shared" si="13"/>
+      <c r="J28" s="1">
+        <f t="shared" si="14"/>
         <v>1.7462462462462474E-4</v>
       </c>
-      <c r="K28" s="2">
-        <f t="shared" si="13"/>
+      <c r="K28" s="1">
+        <f t="shared" si="14"/>
         <v>1.602102102102102E-4</v>
       </c>
-      <c r="L28" s="2">
-        <f t="shared" si="13"/>
+      <c r="L28" s="1">
+        <f t="shared" si="14"/>
         <v>1.5285285285285277E-4</v>
       </c>
-      <c r="M28" s="2">
-        <f t="shared" si="13"/>
+      <c r="M28" s="1">
+        <f t="shared" si="14"/>
         <v>1.7102102102102109E-4</v>
       </c>
-      <c r="N28" s="2">
-        <f t="shared" si="13"/>
+      <c r="N28" s="1">
+        <f t="shared" si="14"/>
         <v>1.2477477477477477E-4</v>
       </c>
-      <c r="O28" s="2">
-        <f t="shared" si="13"/>
+      <c r="O28" s="1">
+        <f t="shared" si="14"/>
         <v>1.8213213213213219E-4</v>
       </c>
-      <c r="P28" s="2">
-        <f t="shared" si="13"/>
+      <c r="P28" s="1">
+        <f t="shared" si="14"/>
         <v>1.2882882882882894E-4</v>
       </c>
-      <c r="Q28" s="2">
-        <f t="shared" si="13"/>
+      <c r="Q28" s="1">
+        <f t="shared" si="14"/>
         <v>1.121621621621621E-4</v>
       </c>
-      <c r="R28" s="2">
-        <f t="shared" si="13"/>
+      <c r="R28" s="1">
+        <f t="shared" si="14"/>
         <v>1.4984984984984999E-4</v>
       </c>
-      <c r="S28" s="2">
-        <f t="shared" si="13"/>
+      <c r="S28" s="1">
+        <f t="shared" si="14"/>
         <v>1.9249249249249243E-4</v>
       </c>
-      <c r="T28" s="2">
-        <f t="shared" si="13"/>
+      <c r="T28" s="1">
+        <f t="shared" si="14"/>
         <v>1.5780780780780791E-4</v>
       </c>
-      <c r="U28" s="2">
-        <f t="shared" si="13"/>
+      <c r="U28" s="1">
+        <f t="shared" si="14"/>
         <v>1.5375375375375382E-4</v>
       </c>
-      <c r="V28" s="2">
-        <f t="shared" si="13"/>
+      <c r="V28" s="1">
+        <f t="shared" si="14"/>
         <v>1.7222222222222232E-4</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <f>INTERCEPT(C23:C25,$B$23:$B$25)</f>
         <v>1.783722222222222</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" ref="D29:V29" si="14">INTERCEPT(D23:D25,$B$23:$B$25)</f>
+      <c r="D29" s="1">
+        <f t="shared" ref="D29:V29" si="15">INTERCEPT(D23:D25,$B$23:$B$25)</f>
         <v>1.8314444444444444</v>
       </c>
-      <c r="E29" s="2">
-        <f t="shared" si="14"/>
+      <c r="E29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8035555555555558</v>
       </c>
-      <c r="F29" s="2">
-        <f t="shared" si="14"/>
+      <c r="F29" s="1">
+        <f t="shared" si="15"/>
         <v>1.7936666666666667</v>
       </c>
-      <c r="G29" s="2">
-        <f t="shared" si="14"/>
+      <c r="G29" s="1">
+        <f t="shared" si="15"/>
         <v>1.888333333333333</v>
       </c>
-      <c r="H29" s="2">
-        <f t="shared" si="14"/>
+      <c r="H29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8152222222222221</v>
       </c>
-      <c r="I29" s="2">
-        <f t="shared" si="14"/>
+      <c r="I29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8242777777777777</v>
       </c>
-      <c r="J29" s="2">
-        <f t="shared" si="14"/>
+      <c r="J29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8133888888888889</v>
       </c>
-      <c r="K29" s="2">
-        <f t="shared" si="14"/>
+      <c r="K29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8147222222222221</v>
       </c>
-      <c r="L29" s="2">
-        <f t="shared" si="14"/>
+      <c r="L29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8354444444444447</v>
       </c>
-      <c r="M29" s="2">
-        <f t="shared" si="14"/>
+      <c r="M29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8273888888888892</v>
       </c>
-      <c r="N29" s="2">
-        <f t="shared" si="14"/>
+      <c r="N29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8315000000000003</v>
       </c>
-      <c r="O29" s="2">
-        <f t="shared" si="14"/>
+      <c r="O29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8012777777777778</v>
       </c>
-      <c r="P29" s="2">
-        <f t="shared" si="14"/>
+      <c r="P29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8539999999999999</v>
       </c>
-      <c r="Q29" s="2">
-        <f t="shared" si="14"/>
+      <c r="Q29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8341666666666665</v>
       </c>
-      <c r="R29" s="2">
-        <f t="shared" si="14"/>
+      <c r="R29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8235555555555558</v>
       </c>
-      <c r="S29" s="2">
-        <f t="shared" si="14"/>
+      <c r="S29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8204444444444443</v>
       </c>
-      <c r="T29" s="2">
-        <f t="shared" si="14"/>
+      <c r="T29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8309444444444445</v>
       </c>
-      <c r="U29" s="2">
-        <f t="shared" si="14"/>
+      <c r="U29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8397777777777777</v>
       </c>
-      <c r="V29" s="2">
-        <f t="shared" si="14"/>
+      <c r="V29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8482777777777779</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>10</v>
       </c>
       <c r="C30">
@@ -26729,8 +27333,8 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="4">
+      <c r="A31" s="8"/>
+      <c r="B31" s="3">
         <v>100</v>
       </c>
       <c r="C31">
@@ -26795,8 +27399,8 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="4">
+      <c r="A32" s="8"/>
+      <c r="B32" s="3">
         <v>1000</v>
       </c>
       <c r="C32">
@@ -26861,8 +27465,8 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="4">
+      <c r="A33" s="8"/>
+      <c r="B33" s="3">
         <v>10000</v>
       </c>
       <c r="C33">
@@ -26870,85 +27474,85 @@
         <v>181.77274324324324</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:V33" si="15">$B$33*D35+D36</f>
+        <f t="shared" ref="D33:V33" si="16">$B$33*D35+D36</f>
         <v>168.19151801801803</v>
       </c>
       <c r="E33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>111.9182972972973</v>
       </c>
       <c r="F33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>79.255306306306323</v>
       </c>
       <c r="G33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>48.994698198198201</v>
       </c>
       <c r="H33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>79.552626126126142</v>
       </c>
       <c r="I33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>61.948509009009008</v>
       </c>
       <c r="J33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20.273522522522519</v>
       </c>
       <c r="K33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>60.067837837837835</v>
       </c>
       <c r="L33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>106.87800450450449</v>
       </c>
       <c r="M33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.85239639639639631</v>
       </c>
       <c r="N33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>95.488216216216216</v>
       </c>
       <c r="O33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>47.683040540540532</v>
       </c>
       <c r="P33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>101.4019009009009</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45.56855855855855</v>
       </c>
       <c r="R33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>74.976355855855843</v>
       </c>
       <c r="S33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>69.205878378378401</v>
       </c>
       <c r="T33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.5646396396396394</v>
       </c>
       <c r="U33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>106.4032027027027</v>
       </c>
       <c r="V33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>57.046990990990984</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="6">
+      <c r="A34" s="8"/>
+      <c r="B34" s="5">
         <v>100000</v>
       </c>
       <c r="C34">
@@ -26956,259 +27560,259 @@
         <v>1824.4619324324326</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:V34" si="16">$B$34*D35+D36</f>
+        <f t="shared" ref="D34:V34" si="17">$B$34*D35+D36</f>
         <v>1687.8536801801802</v>
       </c>
       <c r="E34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1123.5939729729728</v>
       </c>
       <c r="F34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>795.01206306306324</v>
       </c>
       <c r="G34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>491.278481981982</v>
       </c>
       <c r="H34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>798.18776126126136</v>
       </c>
       <c r="I34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>621.5295900900901</v>
       </c>
       <c r="J34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>202.97622522522519</v>
       </c>
       <c r="K34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>602.60837837837835</v>
       </c>
       <c r="L34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1072.918545045045</v>
       </c>
       <c r="M34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.4199639639639638</v>
       </c>
       <c r="N34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>958.43416216216212</v>
       </c>
       <c r="O34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>478.04790540540534</v>
       </c>
       <c r="P34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1017.510009009009</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>456.59558558558552</v>
       </c>
       <c r="R34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>752.17905855855849</v>
       </c>
       <c r="S34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>694.11128378378396</v>
       </c>
       <c r="T34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-17.321396396396395</v>
       </c>
       <c r="U34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1068.227527027027</v>
       </c>
       <c r="V34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>571.96590990990978</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <f>SLOPE(C30:C32,$B$30:$B$32)</f>
         <v>1.8252102102102104E-2</v>
       </c>
-      <c r="D35" s="2">
-        <f t="shared" ref="D35:V35" si="17">SLOPE(D30:D32,$B$30:$B$32)</f>
+      <c r="D35" s="1">
+        <f t="shared" ref="D35:V35" si="18">SLOPE(D30:D32,$B$30:$B$32)</f>
         <v>1.6885135135135135E-2</v>
       </c>
-      <c r="E35" s="2">
-        <f t="shared" si="17"/>
+      <c r="E35" s="1">
+        <f t="shared" si="18"/>
         <v>1.124084084084084E-2</v>
       </c>
-      <c r="F35" s="2">
-        <f t="shared" si="17"/>
+      <c r="F35" s="1">
+        <f t="shared" si="18"/>
         <v>7.9528528528528541E-3</v>
       </c>
-      <c r="G35" s="2">
-        <f t="shared" si="17"/>
+      <c r="G35" s="1">
+        <f t="shared" si="18"/>
         <v>4.9142642642642639E-3</v>
       </c>
-      <c r="H35" s="2">
-        <f t="shared" si="17"/>
+      <c r="H35" s="1">
+        <f t="shared" si="18"/>
         <v>7.9848348348348364E-3</v>
       </c>
-      <c r="I35" s="2">
-        <f t="shared" si="17"/>
+      <c r="I35" s="1">
+        <f t="shared" si="18"/>
         <v>6.2175675675675678E-3</v>
       </c>
-      <c r="J35" s="2">
-        <f t="shared" si="17"/>
+      <c r="J35" s="1">
+        <f t="shared" si="18"/>
         <v>2.0300300300300296E-3</v>
       </c>
-      <c r="K35" s="2">
-        <f t="shared" si="17"/>
+      <c r="K35" s="1">
+        <f t="shared" si="18"/>
         <v>6.028228228228228E-3</v>
       </c>
-      <c r="L35" s="2">
-        <f t="shared" si="17"/>
+      <c r="L35" s="1">
+        <f t="shared" si="18"/>
         <v>1.0733783783783783E-2</v>
       </c>
-      <c r="M35" s="2">
-        <f t="shared" si="17"/>
+      <c r="M35" s="1">
+        <f t="shared" si="18"/>
         <v>-9.5195195195195198E-5</v>
       </c>
-      <c r="N35" s="2">
-        <f t="shared" si="17"/>
+      <c r="N35" s="1">
+        <f t="shared" si="18"/>
         <v>9.5882882882882877E-3</v>
       </c>
-      <c r="O35" s="2">
-        <f t="shared" si="17"/>
+      <c r="O35" s="1">
+        <f t="shared" si="18"/>
         <v>4.7818318318318311E-3</v>
       </c>
-      <c r="P35" s="2">
-        <f t="shared" si="17"/>
+      <c r="P35" s="1">
+        <f t="shared" si="18"/>
         <v>1.0178978978978979E-2</v>
       </c>
-      <c r="Q35" s="2">
-        <f t="shared" si="17"/>
+      <c r="Q35" s="1">
+        <f t="shared" si="18"/>
         <v>4.5669669669669661E-3</v>
       </c>
-      <c r="R35" s="2">
-        <f t="shared" si="17"/>
+      <c r="R35" s="1">
+        <f t="shared" si="18"/>
         <v>7.5244744744744742E-3</v>
       </c>
-      <c r="S35" s="2">
-        <f t="shared" si="17"/>
+      <c r="S35" s="1">
+        <f t="shared" si="18"/>
         <v>6.9433933933933951E-3</v>
       </c>
-      <c r="T35" s="2">
-        <f t="shared" si="17"/>
+      <c r="T35" s="1">
+        <f t="shared" si="18"/>
         <v>-1.7507507507507505E-4</v>
       </c>
-      <c r="U35" s="2">
-        <f t="shared" si="17"/>
+      <c r="U35" s="1">
+        <f t="shared" si="18"/>
         <v>1.0686936936936937E-2</v>
       </c>
-      <c r="V35" s="2">
-        <f t="shared" si="17"/>
+      <c r="V35" s="1">
+        <f t="shared" si="18"/>
         <v>5.7213213213213208E-3</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <f>INTERCEPT(C30:C32,$B$30:$B$32)</f>
         <v>-0.74827777777777893</v>
       </c>
-      <c r="D36" s="2">
-        <f t="shared" ref="D36:V36" si="18">INTERCEPT(D30:D32,$B$30:$B$32)</f>
+      <c r="D36" s="1">
+        <f t="shared" ref="D36:V36" si="19">INTERCEPT(D30:D32,$B$30:$B$32)</f>
         <v>-0.65983333333333238</v>
       </c>
-      <c r="E36" s="2">
-        <f t="shared" si="18"/>
+      <c r="E36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.49011111111111072</v>
       </c>
-      <c r="F36" s="2">
-        <f t="shared" si="18"/>
+      <c r="F36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.27322222222222203</v>
       </c>
-      <c r="G36" s="2">
-        <f t="shared" si="18"/>
+      <c r="G36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.14794444444444421</v>
       </c>
-      <c r="H36" s="2">
-        <f t="shared" si="18"/>
+      <c r="H36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.29572222222222289</v>
       </c>
-      <c r="I36" s="2">
-        <f t="shared" si="18"/>
+      <c r="I36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.22716666666666674</v>
       </c>
-      <c r="J36" s="2">
-        <f t="shared" si="18"/>
+      <c r="J36" s="1">
+        <f t="shared" si="19"/>
         <v>-2.6777777777777567E-2</v>
       </c>
-      <c r="K36" s="2">
-        <f t="shared" si="18"/>
+      <c r="K36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.21444444444444422</v>
       </c>
-      <c r="L36" s="2">
-        <f t="shared" si="18"/>
+      <c r="L36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.45983333333333309</v>
       </c>
-      <c r="M36" s="2">
-        <f t="shared" si="18"/>
+      <c r="M36" s="1">
+        <f t="shared" si="19"/>
         <v>9.9555555555555564E-2</v>
       </c>
-      <c r="N36" s="2">
-        <f t="shared" si="18"/>
+      <c r="N36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.39466666666666628</v>
       </c>
-      <c r="O36" s="2">
-        <f t="shared" si="18"/>
+      <c r="O36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.13527777777777783</v>
       </c>
-      <c r="P36" s="2">
-        <f t="shared" si="18"/>
+      <c r="P36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.38788888888888895</v>
       </c>
-      <c r="Q36" s="2">
-        <f t="shared" si="18"/>
+      <c r="Q36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.10111111111111071</v>
       </c>
-      <c r="R36" s="2">
-        <f t="shared" si="18"/>
+      <c r="R36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.26838888888888857</v>
       </c>
-      <c r="S36" s="2">
-        <f t="shared" si="18"/>
+      <c r="S36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.22805555555555612</v>
       </c>
-      <c r="T36" s="2">
-        <f t="shared" si="18"/>
+      <c r="T36" s="1">
+        <f t="shared" si="19"/>
         <v>0.18611111111111112</v>
       </c>
-      <c r="U36" s="2">
-        <f t="shared" si="18"/>
+      <c r="U36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.46616666666666706</v>
       </c>
-      <c r="V36" s="2">
-        <f t="shared" si="18"/>
+      <c r="V36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.16622222222222183</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>10</v>
       </c>
       <c r="C37">
@@ -27273,8 +27877,8 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="4">
+      <c r="A38" s="8"/>
+      <c r="B38" s="3">
         <v>100</v>
       </c>
       <c r="C38">
@@ -27339,8 +27943,8 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="4">
+      <c r="A39" s="8"/>
+      <c r="B39" s="3">
         <v>1000</v>
       </c>
       <c r="C39">
@@ -27405,8 +28009,8 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="4">
+      <c r="A40" s="8"/>
+      <c r="B40" s="3">
         <v>10000</v>
       </c>
       <c r="C40">
@@ -27414,85 +28018,85 @@
         <v>1026.7948648648648</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:V40" si="19">$B$40*D42+D43</f>
+        <f t="shared" ref="D40:V40" si="20">$B$40*D42+D43</f>
         <v>601.7206666666666</v>
       </c>
       <c r="E40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>422.53751351351366</v>
       </c>
       <c r="F40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>330.33404954954949</v>
       </c>
       <c r="G40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>255.19335585585586</v>
       </c>
       <c r="H40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>271.65027027027031</v>
       </c>
       <c r="I40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>228.57148648648649</v>
       </c>
       <c r="J40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>170.38984234234238</v>
       </c>
       <c r="K40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>229.35667567567569</v>
       </c>
       <c r="L40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>279.44311261261259</v>
       </c>
       <c r="M40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>158.14016666666669</v>
       </c>
       <c r="N40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>275.11876126126123</v>
       </c>
       <c r="O40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>225.61509459459458</v>
       </c>
       <c r="P40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>268.20764414414407</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>206.19585135135137</v>
       </c>
       <c r="R40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>236.72756306306306</v>
       </c>
       <c r="S40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>236.24688288288291</v>
       </c>
       <c r="T40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>162.44862612612613</v>
       </c>
       <c r="U40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>276.75375225225224</v>
       </c>
       <c r="V40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>227.44338738738742</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="6">
+      <c r="A41" s="8"/>
+      <c r="B41" s="5">
         <v>100000</v>
       </c>
       <c r="C41">
@@ -27500,259 +28104,259 @@
         <v>10275.578648648649</v>
       </c>
       <c r="D41">
-        <f t="shared" ref="D41:V41" si="20">$B$41*D42+D43</f>
+        <f t="shared" ref="D41:V41" si="21">$B$41*D42+D43</f>
         <v>6007.7206666666661</v>
       </c>
       <c r="E41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4210.1591351351362</v>
       </c>
       <c r="F41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3283.7799954954949</v>
       </c>
       <c r="G41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2527.3960585585583</v>
       </c>
       <c r="H41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2694.0827027027026</v>
       </c>
       <c r="I41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2250.949864864865</v>
       </c>
       <c r="J41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1671.9709234234235</v>
       </c>
       <c r="K41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2258.4377567567572</v>
       </c>
       <c r="L41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2761.4566261261261</v>
       </c>
       <c r="M41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1543.6401666666668</v>
       </c>
       <c r="N41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2717.9701126126129</v>
       </c>
       <c r="O41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2223.4664459459455</v>
       </c>
       <c r="P41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2648.0049414414411</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2024.8580135135135</v>
       </c>
       <c r="R41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2331.7951306306309</v>
       </c>
       <c r="S41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2325.1928288288291</v>
       </c>
       <c r="T41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1583.0837612612613</v>
       </c>
       <c r="U41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2730.5240225225225</v>
       </c>
       <c r="V41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2233.9298738738739</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <f>SLOPE(C37:C39,$B$37:$B$39)</f>
         <v>0.10276426426426426</v>
       </c>
-      <c r="D42" s="2">
-        <f t="shared" ref="D42:V42" si="21">SLOPE(D37:D39,$B$37:$B$39)</f>
+      <c r="D42" s="1">
+        <f t="shared" ref="D42:V42" si="22">SLOPE(D37:D39,$B$37:$B$39)</f>
         <v>6.0066666666666664E-2</v>
       </c>
-      <c r="E42" s="2">
-        <f t="shared" si="21"/>
+      <c r="E42" s="1">
+        <f t="shared" si="22"/>
         <v>4.2084684684684695E-2</v>
       </c>
-      <c r="F42" s="2">
-        <f t="shared" si="21"/>
+      <c r="F42" s="1">
+        <f t="shared" si="22"/>
         <v>3.281606606606606E-2</v>
       </c>
-      <c r="G42" s="2">
-        <f t="shared" si="21"/>
+      <c r="G42" s="1">
+        <f t="shared" si="22"/>
         <v>2.5246696696696696E-2</v>
       </c>
-      <c r="H42" s="2">
-        <f t="shared" si="21"/>
+      <c r="H42" s="1">
+        <f t="shared" si="22"/>
         <v>2.6915915915915918E-2</v>
       </c>
-      <c r="I42" s="2">
-        <f t="shared" si="21"/>
+      <c r="I42" s="1">
+        <f t="shared" si="22"/>
         <v>2.2470870870870872E-2</v>
       </c>
-      <c r="J42" s="2">
-        <f t="shared" si="21"/>
+      <c r="J42" s="1">
+        <f t="shared" si="22"/>
         <v>1.6684234234234235E-2</v>
       </c>
-      <c r="K42" s="2">
-        <f t="shared" si="21"/>
+      <c r="K42" s="1">
+        <f t="shared" si="22"/>
         <v>2.2545345345345347E-2</v>
       </c>
-      <c r="L42" s="2">
-        <f t="shared" si="21"/>
+      <c r="L42" s="1">
+        <f t="shared" si="22"/>
         <v>2.7577927927927928E-2</v>
       </c>
-      <c r="M42" s="2">
-        <f t="shared" si="21"/>
+      <c r="M42" s="1">
+        <f t="shared" si="22"/>
         <v>1.5394444444444445E-2</v>
       </c>
-      <c r="N42" s="2">
-        <f t="shared" si="21"/>
+      <c r="N42" s="1">
+        <f t="shared" si="22"/>
         <v>2.7142792792792792E-2</v>
       </c>
-      <c r="O42" s="2">
-        <f t="shared" si="21"/>
+      <c r="O42" s="1">
+        <f t="shared" si="22"/>
         <v>2.2198348348348346E-2</v>
       </c>
-      <c r="P42" s="2">
-        <f t="shared" si="21"/>
+      <c r="P42" s="1">
+        <f t="shared" si="22"/>
         <v>2.6442192192192189E-2</v>
       </c>
-      <c r="Q42" s="2">
-        <f t="shared" si="21"/>
+      <c r="Q42" s="1">
+        <f t="shared" si="22"/>
         <v>2.0207357357357358E-2</v>
       </c>
-      <c r="R42" s="2">
-        <f t="shared" si="21"/>
+      <c r="R42" s="1">
+        <f t="shared" si="22"/>
         <v>2.327852852852853E-2</v>
       </c>
-      <c r="S42" s="2">
-        <f t="shared" si="21"/>
+      <c r="S42" s="1">
+        <f t="shared" si="22"/>
         <v>2.3210510510510513E-2</v>
       </c>
-      <c r="T42" s="2">
-        <f t="shared" si="21"/>
+      <c r="T42" s="1">
+        <f t="shared" si="22"/>
         <v>1.5784834834834834E-2</v>
       </c>
-      <c r="U42" s="2">
-        <f t="shared" si="21"/>
+      <c r="U42" s="1">
+        <f t="shared" si="22"/>
         <v>2.7264114114114113E-2</v>
       </c>
-      <c r="V42" s="2">
-        <f t="shared" si="21"/>
+      <c r="V42" s="1">
+        <f t="shared" si="22"/>
         <v>2.2294294294294296E-2</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <f>INTERCEPT(C37:C39,$B$37:$B$39)</f>
         <v>-0.84777777777777175</v>
       </c>
-      <c r="D43" s="2">
-        <f t="shared" ref="D43:V43" si="22">INTERCEPT(D37:D39,$B$37:$B$39)</f>
+      <c r="D43" s="1">
+        <f t="shared" ref="D43:V43" si="23">INTERCEPT(D37:D39,$B$37:$B$39)</f>
         <v>1.054000000000002</v>
       </c>
-      <c r="E43" s="2">
-        <f t="shared" si="22"/>
+      <c r="E43" s="1">
+        <f t="shared" si="23"/>
         <v>1.6906666666666634</v>
       </c>
-      <c r="F43" s="2">
-        <f t="shared" si="22"/>
+      <c r="F43" s="1">
+        <f t="shared" si="23"/>
         <v>2.1733888888888906</v>
       </c>
-      <c r="G43" s="2">
-        <f t="shared" si="22"/>
+      <c r="G43" s="1">
+        <f t="shared" si="23"/>
         <v>2.7263888888888896</v>
       </c>
-      <c r="H43" s="2">
-        <f t="shared" si="22"/>
+      <c r="H43" s="1">
+        <f t="shared" si="23"/>
         <v>2.4911111111111115</v>
       </c>
-      <c r="I43" s="2">
-        <f t="shared" si="22"/>
+      <c r="I43" s="1">
+        <f t="shared" si="23"/>
         <v>3.8627777777777776</v>
       </c>
-      <c r="J43" s="2">
-        <f t="shared" si="22"/>
+      <c r="J43" s="1">
+        <f t="shared" si="23"/>
         <v>3.5474999999999994</v>
       </c>
-      <c r="K43" s="2">
-        <f t="shared" si="22"/>
+      <c r="K43" s="1">
+        <f t="shared" si="23"/>
         <v>3.9032222222222206</v>
       </c>
-      <c r="L43" s="2">
-        <f t="shared" si="22"/>
+      <c r="L43" s="1">
+        <f t="shared" si="23"/>
         <v>3.6638333333333311</v>
       </c>
-      <c r="M43" s="2">
-        <f t="shared" si="22"/>
+      <c r="M43" s="1">
+        <f t="shared" si="23"/>
         <v>4.1957222222222228</v>
       </c>
-      <c r="N43" s="2">
-        <f t="shared" si="22"/>
+      <c r="N43" s="1">
+        <f t="shared" si="23"/>
         <v>3.6908333333333339</v>
       </c>
-      <c r="O43" s="2">
-        <f t="shared" si="22"/>
+      <c r="O43" s="1">
+        <f t="shared" si="23"/>
         <v>3.6316111111111109</v>
       </c>
-      <c r="P43" s="2">
-        <f t="shared" si="22"/>
+      <c r="P43" s="1">
+        <f t="shared" si="23"/>
         <v>3.7857222222222227</v>
       </c>
-      <c r="Q43" s="2">
-        <f t="shared" si="22"/>
+      <c r="Q43" s="1">
+        <f t="shared" si="23"/>
         <v>4.1222777777777759</v>
       </c>
-      <c r="R43" s="2">
-        <f t="shared" si="22"/>
+      <c r="R43" s="1">
+        <f t="shared" si="23"/>
         <v>3.9422777777777753</v>
       </c>
-      <c r="S43" s="2">
-        <f t="shared" si="22"/>
+      <c r="S43" s="1">
+        <f t="shared" si="23"/>
         <v>4.1417777777777776</v>
       </c>
-      <c r="T43" s="2">
-        <f t="shared" si="22"/>
+      <c r="T43" s="1">
+        <f t="shared" si="23"/>
         <v>4.6002777777777784</v>
       </c>
-      <c r="U43" s="2">
-        <f t="shared" si="22"/>
+      <c r="U43" s="1">
+        <f t="shared" si="23"/>
         <v>4.1126111111111108</v>
       </c>
-      <c r="V43" s="2">
-        <f t="shared" si="22"/>
+      <c r="V43" s="1">
+        <f t="shared" si="23"/>
         <v>4.500444444444442</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>10</v>
       </c>
       <c r="C44">
@@ -27764,343 +28368,343 @@
         <v>3.5840000000000001</v>
       </c>
       <c r="E44">
-        <f t="shared" ref="E44:V44" si="23">SUM(E2,E9,E16,E23,E30)</f>
+        <f t="shared" ref="E44:V44" si="24">SUM(E2,E9,E16,E23,E30)</f>
         <v>3.4939999999999998</v>
       </c>
       <c r="F44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.4930000000000003</v>
       </c>
       <c r="G44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.5339999999999994</v>
       </c>
       <c r="H44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.6379999999999999</v>
       </c>
       <c r="I44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.7580000000000009</v>
       </c>
       <c r="J44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.6339999999999999</v>
       </c>
       <c r="K44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.8390000000000004</v>
       </c>
       <c r="L44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.8179999999999996</v>
       </c>
       <c r="M44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.8759999999999994</v>
       </c>
       <c r="N44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.8319999999999999</v>
       </c>
       <c r="O44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.2610000000000001</v>
       </c>
       <c r="P44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.8369999999999997</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.8730000000000002</v>
       </c>
       <c r="R44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.7949999999999999</v>
       </c>
       <c r="S44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.8969999999999994</v>
       </c>
       <c r="T44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.7039999999999997</v>
       </c>
       <c r="U44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.8840000000000003</v>
       </c>
       <c r="V44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.902000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="4">
+      <c r="A45" s="8"/>
+      <c r="B45" s="3">
         <v>100</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:R48" si="24">SUM(C3,C10,C17,C24,C31)</f>
+        <f t="shared" ref="C45:R48" si="25">SUM(C3,C10,C17,C24,C31)</f>
         <v>5.6890000000000001</v>
       </c>
       <c r="D45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.9309999999999992</v>
       </c>
       <c r="E45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.37</v>
       </c>
       <c r="F45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.3559999999999999</v>
       </c>
       <c r="G45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.6319999999999997</v>
       </c>
       <c r="H45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.2109999999999994</v>
       </c>
       <c r="I45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.3659999999999997</v>
       </c>
       <c r="J45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.2970000000000006</v>
       </c>
       <c r="K45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.3689999999999998</v>
       </c>
       <c r="L45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.447000000000001</v>
       </c>
       <c r="M45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.1499999999999995</v>
       </c>
       <c r="N45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.4409999999999998</v>
       </c>
       <c r="O45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.3959999999999999</v>
       </c>
       <c r="P45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.5570000000000004</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.53</v>
       </c>
       <c r="R45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.5820000000000007</v>
       </c>
       <c r="S45">
-        <f t="shared" ref="S45:V45" si="25">SUM(S3,S10,S17,S24,S31)</f>
+        <f t="shared" ref="S45:V45" si="26">SUM(S3,S10,S17,S24,S31)</f>
         <v>5.88</v>
       </c>
       <c r="T45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.2309999999999999</v>
       </c>
       <c r="U45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.2819999999999991</v>
       </c>
       <c r="V45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.5260000000000007</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="4">
+      <c r="A46" s="8"/>
+      <c r="B46" s="3">
         <v>1000</v>
       </c>
       <c r="C46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>102.25200000000001</v>
       </c>
       <c r="D46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>61.31</v>
       </c>
       <c r="E46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>43.91</v>
       </c>
       <c r="F46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>35.085000000000001</v>
       </c>
       <c r="G46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>28.025000000000002</v>
       </c>
       <c r="H46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>29.490000000000002</v>
       </c>
       <c r="I46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>26.396999999999998</v>
       </c>
       <c r="J46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>20.218999999999998</v>
       </c>
       <c r="K46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>26.515999999999998</v>
       </c>
       <c r="L46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>31.326999999999998</v>
       </c>
       <c r="M46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>19.638999999999996</v>
       </c>
       <c r="N46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>30.916999999999998</v>
       </c>
       <c r="O46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>25.868000000000002</v>
       </c>
       <c r="P46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>30.302999999999997</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>24.381999999999998</v>
       </c>
       <c r="R46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>27.280000000000005</v>
       </c>
       <c r="S46">
-        <f t="shared" ref="S46:V46" si="26">SUM(S4,S11,S18,S25,S32)</f>
+        <f t="shared" ref="S46:V46" si="27">SUM(S4,S11,S18,S25,S32)</f>
         <v>27.400000000000002</v>
       </c>
       <c r="T46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>20.376999999999999</v>
       </c>
       <c r="U46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31.421999999999997</v>
       </c>
       <c r="V46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>26.810000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="4">
+      <c r="A47" s="8"/>
+      <c r="B47" s="3">
         <v>10000</v>
       </c>
       <c r="C47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1026.7894189189187</v>
       </c>
       <c r="D47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>601.71266216216213</v>
       </c>
       <c r="E47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>422.53351351351353</v>
       </c>
       <c r="F47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>330.33004954954959</v>
       </c>
       <c r="G47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>255.18935585585587</v>
       </c>
       <c r="H47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>271.62491441441443</v>
       </c>
       <c r="I47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>228.5580315315315</v>
       </c>
       <c r="J47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>170.36993693693688</v>
       </c>
       <c r="K47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>229.34867117117116</v>
       </c>
       <c r="L47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>279.4495675675675</v>
       </c>
       <c r="M47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>158.12526576576579</v>
       </c>
       <c r="N47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>275.11075675675681</v>
       </c>
       <c r="O47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>225.61609909909907</v>
       </c>
       <c r="P47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>268.19963963963966</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>206.20775675675677</v>
       </c>
       <c r="R47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>236.72311711711714</v>
       </c>
       <c r="S47">
-        <f t="shared" ref="S47:V47" si="27">SUM(S5,S12,S19,S26,S33)</f>
+        <f t="shared" ref="S47:V47" si="28">SUM(S5,S12,S19,S26,S33)</f>
         <v>236.22842342342346</v>
       </c>
       <c r="T47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>162.44963063063065</v>
       </c>
       <c r="U47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>276.7392972972973</v>
       </c>
       <c r="V47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>227.44583783783784</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="8">
+      <c r="A48" s="8"/>
+      <c r="B48" s="7">
         <v>100000</v>
       </c>
       <c r="C48">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>10275.559689189187</v>
       </c>
       <c r="D48">
@@ -28108,75 +28712,75 @@
         <v>6007.672121621622</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48:V48" si="28">SUM(E6,E13,E20,E27,E34)</f>
+        <f t="shared" ref="E48:V48" si="29">SUM(E6,E13,E20,E27,E34)</f>
         <v>4210.1551351351354</v>
       </c>
       <c r="F48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3283.7759954954959</v>
       </c>
       <c r="G48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2527.3920585585588</v>
       </c>
       <c r="H48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2693.854644144144</v>
       </c>
       <c r="I48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2250.8418153153152</v>
       </c>
       <c r="J48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1671.802369369369</v>
       </c>
       <c r="K48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2258.3892117117121</v>
       </c>
       <c r="L48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2761.5576756756755</v>
       </c>
       <c r="M48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1543.5171576576577</v>
       </c>
       <c r="N48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2717.9215675675678</v>
       </c>
       <c r="O48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2223.5079909909909</v>
       </c>
       <c r="P48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2647.956396396396</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2025.0185675675673</v>
       </c>
       <c r="R48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2331.7771711711716</v>
       </c>
       <c r="S48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2325.0392342342343</v>
       </c>
       <c r="T48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1583.1253063063061</v>
       </c>
       <c r="U48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2730.4149729729725</v>
       </c>
       <c r="V48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2233.9863783783785</v>
       </c>
     </row>
@@ -28200,8 +28804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="AM43" sqref="AM43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28210,7 +28814,7 @@
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C1">
@@ -28275,10 +28879,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>10</v>
       </c>
       <c r="C2">
@@ -28343,8 +28947,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3">
         <v>100</v>
       </c>
       <c r="C3">
@@ -28409,8 +29013,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3">
         <v>1000</v>
       </c>
       <c r="C4">
@@ -28475,8 +29079,8 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3">
         <v>10000</v>
       </c>
       <c r="C5">
@@ -28561,8 +29165,8 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3">
         <v>100000</v>
       </c>
       <c r="C6">
@@ -28647,182 +29251,182 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2">
-        <f>SLOPE(C2:C4,$B$2:$B$4)</f>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:V7" si="2">SLOPE(C2:C4,$B$2:$B$4)</f>
         <v>5.8327327327327323E-3</v>
       </c>
-      <c r="D7" s="2">
-        <f>SLOPE(D2:D4,$B$2:$B$4)</f>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
         <v>3.236036036036036E-3</v>
       </c>
-      <c r="E7" s="2">
-        <f>SLOPE(E2:E4,$B$2:$B$4)</f>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
         <v>2.6421921921921921E-3</v>
       </c>
-      <c r="F7" s="2">
-        <f>SLOPE(F2:F4,$B$2:$B$4)</f>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
         <v>2.3051051051051047E-3</v>
       </c>
-      <c r="G7" s="2">
-        <f>SLOPE(G2:G4,$B$2:$B$4)</f>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
         <v>2.3289789789789788E-3</v>
       </c>
-      <c r="H7" s="2">
-        <f>SLOPE(H2:H4,$B$2:$B$4)</f>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
         <v>2.0429429429429428E-3</v>
       </c>
-      <c r="I7" s="2">
-        <f>SLOPE(I2:I4,$B$2:$B$4)</f>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
         <v>5.9234234234234223E-4</v>
       </c>
-      <c r="J7" s="2">
-        <f>SLOPE(J2:J4,$B$2:$B$4)</f>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
         <v>1.5225225225225223E-3</v>
       </c>
-      <c r="K7" s="2">
-        <f>SLOPE(K2:K4,$B$2:$B$4)</f>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
         <v>7.8948948948948951E-4</v>
       </c>
-      <c r="L7" s="2">
-        <f>SLOPE(L2:L4,$B$2:$B$4)</f>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
         <v>1.0036036036036036E-3</v>
       </c>
-      <c r="M7" s="2">
-        <f>SLOPE(M2:M4,$B$2:$B$4)</f>
+      <c r="M7" s="1">
+        <f t="shared" si="2"/>
         <v>1.3554054054054051E-3</v>
       </c>
-      <c r="N7" s="2">
-        <f>SLOPE(N2:N4,$B$2:$B$4)</f>
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
         <v>1.6216216216216215E-3</v>
       </c>
-      <c r="O7" s="2">
-        <f>SLOPE(O2:O4,$B$2:$B$4)</f>
+      <c r="O7" s="1">
+        <f t="shared" si="2"/>
         <v>2.2123123123123124E-3</v>
       </c>
-      <c r="P7" s="2">
-        <f>SLOPE(P2:P4,$B$2:$B$4)</f>
+      <c r="P7" s="1">
+        <f t="shared" si="2"/>
         <v>1.9783783783783784E-3</v>
       </c>
-      <c r="Q7" s="2">
-        <f>SLOPE(Q2:Q4,$B$2:$B$4)</f>
+      <c r="Q7" s="1">
+        <f t="shared" si="2"/>
         <v>2.0330330330330334E-3</v>
       </c>
-      <c r="R7" s="2">
-        <f>SLOPE(R2:R4,$B$2:$B$4)</f>
+      <c r="R7" s="1">
+        <f t="shared" si="2"/>
         <v>2.3689189189189195E-3</v>
       </c>
-      <c r="S7" s="2">
-        <f>SLOPE(S2:S4,$B$2:$B$4)</f>
+      <c r="S7" s="1">
+        <f t="shared" si="2"/>
         <v>2.3605105105105103E-3</v>
       </c>
-      <c r="T7" s="2">
-        <f>SLOPE(T2:T4,$B$2:$B$4)</f>
+      <c r="T7" s="1">
+        <f t="shared" si="2"/>
         <v>2.4226726726726726E-3</v>
       </c>
-      <c r="U7" s="2">
-        <f>SLOPE(U2:U4,$B$2:$B$4)</f>
+      <c r="U7" s="1">
+        <f t="shared" si="2"/>
         <v>2.4902402402402404E-3</v>
       </c>
-      <c r="V7" s="2">
-        <f>SLOPE(V2:V4,$B$2:$B$4)</f>
+      <c r="V7" s="1">
+        <f t="shared" si="2"/>
         <v>2.6012012012012011E-3</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f>INTERCEPT(C2:C4,$B$2:$B$4)</f>
         <v>1.6268888888888893</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" ref="D8:V8" si="2">INTERCEPT(D2:D4,$B$2:$B$4)</f>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:V8" si="3">INTERCEPT(D2:D4,$B$2:$B$4)</f>
         <v>1.62</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="2"/>
+      <c r="E8" s="1">
+        <f t="shared" si="3"/>
         <v>1.5863888888888891</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="2"/>
+      <c r="F8" s="1">
+        <f t="shared" si="3"/>
         <v>1.5947777777777778</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="2"/>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
         <v>1.6669444444444443</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" si="2"/>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
         <v>1.6397777777777778</v>
       </c>
-      <c r="I8" s="2">
-        <f t="shared" si="2"/>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
         <v>2.8618333333333332</v>
       </c>
-      <c r="J8" s="2">
-        <f t="shared" si="2"/>
+      <c r="J8" s="1">
+        <f t="shared" si="3"/>
         <v>2.2013333333333334</v>
       </c>
-      <c r="K8" s="2">
-        <f t="shared" si="2"/>
+      <c r="K8" s="1">
+        <f t="shared" si="3"/>
         <v>2.8928888888888888</v>
       </c>
-      <c r="L8" s="2">
-        <f t="shared" si="2"/>
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
         <v>2.8530000000000002</v>
       </c>
-      <c r="M8" s="2">
-        <f t="shared" si="2"/>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
         <v>2.7118333333333329</v>
       </c>
-      <c r="N8" s="2">
-        <f t="shared" si="2"/>
+      <c r="N8" s="1">
+        <f t="shared" si="3"/>
         <v>2.8343333333333334</v>
       </c>
-      <c r="O8" s="2">
-        <f t="shared" si="2"/>
+      <c r="O8" s="1">
+        <f t="shared" si="3"/>
         <v>2.490444444444444</v>
       </c>
-      <c r="P8" s="2">
-        <f t="shared" si="2"/>
+      <c r="P8" s="1">
+        <f t="shared" si="3"/>
         <v>2.7960000000000003</v>
       </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q8" s="1">
+        <f t="shared" si="3"/>
         <v>2.8447777777777778</v>
       </c>
-      <c r="R8" s="2">
-        <f t="shared" si="2"/>
+      <c r="R8" s="1">
+        <f t="shared" si="3"/>
         <v>2.8321666666666672</v>
       </c>
-      <c r="S8" s="2">
-        <f t="shared" si="2"/>
+      <c r="S8" s="1">
+        <f t="shared" si="3"/>
         <v>2.9829444444444446</v>
       </c>
-      <c r="T8" s="2">
-        <f t="shared" si="2"/>
+      <c r="T8" s="1">
+        <f t="shared" si="3"/>
         <v>3.0059444444444443</v>
       </c>
-      <c r="U8" s="2">
-        <f t="shared" si="2"/>
+      <c r="U8" s="1">
+        <f t="shared" si="3"/>
         <v>3.1769444444444446</v>
       </c>
-      <c r="V8" s="2">
-        <f t="shared" si="2"/>
+      <c r="V8" s="1">
+        <f t="shared" si="3"/>
         <v>3.2552222222222227</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>10</v>
       </c>
       <c r="C9">
@@ -28887,8 +29491,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3">
         <v>100</v>
       </c>
       <c r="C10">
@@ -28953,8 +29557,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3">
         <v>1000</v>
       </c>
       <c r="C11">
@@ -29019,8 +29623,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3">
         <v>10000</v>
       </c>
       <c r="C12">
@@ -29028,85 +29632,85 @@
         <v>758.16957207207201</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:V12" si="3">$B$12*D14+D15</f>
+        <f t="shared" ref="D12:V12" si="4">$B$12*D14+D15</f>
         <v>385.85694594594594</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>270.06095495495498</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>212.6465</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>167.936981981982</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>155.56014414414412</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>142.04021621621621</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>116.45749099099096</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>141.57508558558558</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>142.81965765765764</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>124.3138063063063</v>
       </c>
       <c r="N12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>140.25967117117122</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>132.17297297297296</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>124.30706756756757</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>116.12997297297298</v>
       </c>
       <c r="R12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>112.83933333333334</v>
       </c>
       <c r="S12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119.34473873873874</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>111.90393693693696</v>
       </c>
       <c r="U12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>121.17203153153152</v>
       </c>
       <c r="V12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119.04277927927929</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="4">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3">
         <v>100000</v>
       </c>
       <c r="C13">
@@ -29114,259 +29718,259 @@
         <v>7613.3182207207201</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:V13" si="4">$B$13*D14+D15</f>
+        <f t="shared" ref="D13:V13" si="5">$B$13*D14+D15</f>
         <v>3874.3704594594597</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2711.6555495495495</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2135.1465000000003</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1685.7748198198201</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1561.8574414414413</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1425.9861621621621</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1168.8764099099096</v>
       </c>
       <c r="K13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1421.345355855856</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1433.7385765765764</v>
       </c>
       <c r="M13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1247.570563063063</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1408.3002117117119</v>
       </c>
       <c r="O13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1326.9297297297298</v>
       </c>
       <c r="P13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1247.9151756756758</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1165.8867297297297</v>
       </c>
       <c r="R13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1132.8393333333336</v>
       </c>
       <c r="S13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1197.9933873873874</v>
       </c>
       <c r="T13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1123.3363693693695</v>
       </c>
       <c r="U13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1216.455815315315</v>
       </c>
       <c r="V13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1195.0562927927929</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <f>SLOPE(C9:C11,$B$9:$B$11)</f>
         <v>7.6168318318318315E-2</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:V14" si="5">SLOPE(D9:D11,$B$9:$B$11)</f>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:V14" si="6">SLOPE(D9:D11,$B$9:$B$11)</f>
         <v>3.8761261261261261E-2</v>
       </c>
-      <c r="E14" s="2">
-        <f t="shared" si="5"/>
+      <c r="E14" s="1">
+        <f t="shared" si="6"/>
         <v>2.7128828828828829E-2</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="5"/>
+      <c r="F14" s="1">
+        <f t="shared" si="6"/>
         <v>2.1361111111111112E-2</v>
       </c>
-      <c r="G14" s="2">
-        <f t="shared" si="5"/>
+      <c r="G14" s="1">
+        <f t="shared" si="6"/>
         <v>1.6864864864864867E-2</v>
       </c>
-      <c r="H14" s="2">
-        <f t="shared" si="5"/>
+      <c r="H14" s="1">
+        <f t="shared" si="6"/>
         <v>1.5625525525525524E-2</v>
       </c>
-      <c r="I14" s="2">
-        <f t="shared" si="5"/>
+      <c r="I14" s="1">
+        <f t="shared" si="6"/>
         <v>1.4266066066066067E-2</v>
       </c>
-      <c r="J14" s="2">
-        <f t="shared" si="5"/>
+      <c r="J14" s="1">
+        <f t="shared" si="6"/>
         <v>1.1693543543543541E-2</v>
       </c>
-      <c r="K14" s="2">
-        <f t="shared" si="5"/>
+      <c r="K14" s="1">
+        <f t="shared" si="6"/>
         <v>1.4219669669669671E-2</v>
       </c>
-      <c r="L14" s="2">
-        <f t="shared" si="5"/>
+      <c r="L14" s="1">
+        <f t="shared" si="6"/>
         <v>1.4343543543543542E-2</v>
       </c>
-      <c r="M14" s="2">
-        <f t="shared" si="5"/>
+      <c r="M14" s="1">
+        <f t="shared" si="6"/>
         <v>1.2480630630630631E-2</v>
       </c>
-      <c r="N14" s="2">
-        <f t="shared" si="5"/>
+      <c r="N14" s="1">
+        <f t="shared" si="6"/>
         <v>1.4089339339339342E-2</v>
       </c>
-      <c r="O14" s="2">
-        <f t="shared" si="5"/>
+      <c r="O14" s="1">
+        <f t="shared" si="6"/>
         <v>1.3275075075075075E-2</v>
       </c>
-      <c r="P14" s="2">
-        <f t="shared" si="5"/>
+      <c r="P14" s="1">
+        <f t="shared" si="6"/>
         <v>1.2484534534534535E-2</v>
       </c>
-      <c r="Q14" s="2">
-        <f t="shared" si="5"/>
+      <c r="Q14" s="1">
+        <f t="shared" si="6"/>
         <v>1.1663963963963964E-2</v>
       </c>
-      <c r="R14" s="2">
-        <f t="shared" si="5"/>
+      <c r="R14" s="1">
+        <f t="shared" si="6"/>
         <v>1.1333333333333334E-2</v>
       </c>
-      <c r="S14" s="2">
-        <f t="shared" si="5"/>
+      <c r="S14" s="1">
+        <f t="shared" si="6"/>
         <v>1.1984984984984985E-2</v>
       </c>
-      <c r="T14" s="2">
-        <f t="shared" si="5"/>
+      <c r="T14" s="1">
+        <f t="shared" si="6"/>
         <v>1.123813813813814E-2</v>
       </c>
-      <c r="U14" s="2">
-        <f t="shared" si="5"/>
+      <c r="U14" s="1">
+        <f t="shared" si="6"/>
         <v>1.2169819819819818E-2</v>
       </c>
-      <c r="V14" s="2">
-        <f t="shared" si="5"/>
+      <c r="V14" s="1">
+        <f t="shared" si="6"/>
         <v>1.1955705705705706E-2</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <f>INTERCEPT(C9:C11,$B$9:$B$11)</f>
         <v>-3.5136111111111106</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15:V15" si="6">INTERCEPT(D9:D11,$B$9:$B$11)</f>
+      <c r="D15" s="1">
+        <f t="shared" ref="D15:V15" si="7">INTERCEPT(D9:D11,$B$9:$B$11)</f>
         <v>-1.7556666666666683</v>
       </c>
-      <c r="E15" s="2">
-        <f t="shared" si="6"/>
+      <c r="E15" s="1">
+        <f t="shared" si="7"/>
         <v>-1.2273333333333341</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="6"/>
+      <c r="F15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.96461111111111109</v>
       </c>
-      <c r="G15" s="2">
-        <f t="shared" si="6"/>
+      <c r="G15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.71166666666666778</v>
       </c>
-      <c r="H15" s="2">
-        <f t="shared" si="6"/>
+      <c r="H15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.69511111111111035</v>
       </c>
-      <c r="I15" s="2">
-        <f t="shared" si="6"/>
+      <c r="I15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.62044444444444391</v>
       </c>
-      <c r="J15" s="2">
-        <f t="shared" si="6"/>
+      <c r="J15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.47794444444444384</v>
       </c>
-      <c r="K15" s="2">
-        <f t="shared" si="6"/>
+      <c r="K15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.62161111111111111</v>
       </c>
-      <c r="L15" s="2">
-        <f t="shared" si="6"/>
+      <c r="L15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.61577777777777687</v>
       </c>
-      <c r="M15" s="2">
-        <f t="shared" si="6"/>
+      <c r="M15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.4925000000000006</v>
       </c>
-      <c r="N15" s="2">
-        <f t="shared" si="6"/>
+      <c r="N15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.63372222222222341</v>
       </c>
-      <c r="O15" s="2">
-        <f t="shared" si="6"/>
+      <c r="O15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.57777777777777839</v>
       </c>
-      <c r="P15" s="2">
-        <f t="shared" si="6"/>
+      <c r="P15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.53827777777777719</v>
       </c>
-      <c r="Q15" s="2">
-        <f t="shared" si="6"/>
+      <c r="Q15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.50966666666666738</v>
       </c>
-      <c r="R15" s="2">
-        <f t="shared" si="6"/>
+      <c r="R15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.49399999999999977</v>
       </c>
-      <c r="S15" s="2">
-        <f t="shared" si="6"/>
+      <c r="S15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.5051111111111104</v>
       </c>
-      <c r="T15" s="2">
-        <f t="shared" si="6"/>
+      <c r="T15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.47744444444444412</v>
       </c>
-      <c r="U15" s="2">
-        <f t="shared" si="6"/>
+      <c r="U15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.52616666666666578</v>
       </c>
-      <c r="V15" s="2">
-        <f t="shared" si="6"/>
+      <c r="V15" s="1">
+        <f t="shared" si="7"/>
         <v>-0.5142777777777785</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>10</v>
       </c>
       <c r="C16">
@@ -29411,7 +30015,7 @@
       <c r="P16">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="R16">
@@ -29431,8 +30035,8 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="4">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3">
         <v>100</v>
       </c>
       <c r="C17">
@@ -29497,8 +30101,8 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3">
         <v>1000</v>
       </c>
       <c r="C18">
@@ -29564,8 +30168,8 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3">
         <v>10000</v>
       </c>
       <c r="C19">
@@ -29573,85 +30177,85 @@
         <v>18.678234234234239</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:V19" si="7">$B$19*D21+D22</f>
+        <f t="shared" ref="D19:V19" si="8">$B$19*D21+D22</f>
         <v>9.2067477477477482</v>
       </c>
       <c r="E19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.5862387387387376</v>
       </c>
       <c r="F19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.096855855855857</v>
       </c>
       <c r="G19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.8810765765765769</v>
       </c>
       <c r="H19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.030117117117118</v>
       </c>
       <c r="I19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.201513513513511</v>
       </c>
       <c r="J19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.652729729729728</v>
       </c>
       <c r="K19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.501139639639643</v>
       </c>
       <c r="L19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.498896396396397</v>
       </c>
       <c r="M19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.860369369369367</v>
       </c>
       <c r="N19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.233072072072073</v>
       </c>
       <c r="O19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.52391891891892</v>
       </c>
       <c r="P19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.768599099099095</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18.378328828828828</v>
       </c>
       <c r="R19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19.064018018018018</v>
       </c>
       <c r="S19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.344387387387389</v>
       </c>
       <c r="T19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19.377648648648648</v>
       </c>
       <c r="U19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.7074009009009</v>
       </c>
       <c r="V19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18.518333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5">
         <v>100000</v>
       </c>
       <c r="C20">
@@ -29659,259 +30263,259 @@
         <v>186.78634234234238</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:V20" si="8">$B$20*D21+D22</f>
+        <f t="shared" ref="D20:V20" si="9">$B$20*D21+D22</f>
         <v>91.936477477477482</v>
       </c>
       <c r="E20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>85.734887387387388</v>
       </c>
       <c r="F20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>90.799558558558545</v>
       </c>
       <c r="G20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>98.570265765765768</v>
       </c>
       <c r="H20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>110.08417117117118</v>
       </c>
       <c r="I20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>121.82313513513512</v>
       </c>
       <c r="J20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>126.22029729729729</v>
       </c>
       <c r="K20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>134.75789639639643</v>
       </c>
       <c r="L20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>134.56646396396397</v>
       </c>
       <c r="M20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>148.18469369369367</v>
       </c>
       <c r="N20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>171.88172072072069</v>
       </c>
       <c r="O20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>174.79418918918921</v>
       </c>
       <c r="P20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>167.16049099099098</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>183.33778828828827</v>
       </c>
       <c r="R20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>190.22618018018019</v>
       </c>
       <c r="S20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>172.83087387387388</v>
       </c>
       <c r="T20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>193.21548648648647</v>
       </c>
       <c r="U20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>176.31550900900899</v>
       </c>
       <c r="V20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>184.51833333333332</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <f>SLOPE(C16:C18,$B$16:$B$18)</f>
         <v>1.8678678678678681E-3</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" ref="D21:V21" si="9">SLOPE(D16:D18,$B$16:$B$18)</f>
+      <c r="D21" s="1">
+        <f t="shared" ref="D21:V21" si="10">SLOPE(D16:D18,$B$16:$B$18)</f>
         <v>9.1921921921921926E-4</v>
       </c>
-      <c r="E21" s="2">
-        <f t="shared" si="9"/>
+      <c r="E21" s="1">
+        <f t="shared" si="10"/>
         <v>8.5720720720720714E-4</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="9"/>
+      <c r="F21" s="1">
+        <f t="shared" si="10"/>
         <v>9.0780780780780779E-4</v>
       </c>
-      <c r="G21" s="2">
-        <f t="shared" si="9"/>
+      <c r="G21" s="1">
+        <f t="shared" si="10"/>
         <v>9.8543543543543554E-4</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="9"/>
+      <c r="H21" s="1">
+        <f t="shared" si="10"/>
         <v>1.1006006006006007E-3</v>
       </c>
-      <c r="I21" s="2">
-        <f t="shared" si="9"/>
+      <c r="I21" s="1">
+        <f t="shared" si="10"/>
         <v>1.2180180180180178E-3</v>
       </c>
-      <c r="J21" s="2">
-        <f t="shared" si="9"/>
+      <c r="J21" s="1">
+        <f t="shared" si="10"/>
         <v>1.2618618618618618E-3</v>
       </c>
-      <c r="K21" s="2">
-        <f t="shared" si="9"/>
+      <c r="K21" s="1">
+        <f t="shared" si="10"/>
         <v>1.3472972972972976E-3</v>
       </c>
-      <c r="L21" s="2">
-        <f t="shared" si="9"/>
+      <c r="L21" s="1">
+        <f t="shared" si="10"/>
         <v>1.3451951951951953E-3</v>
       </c>
-      <c r="M21" s="2">
-        <f t="shared" si="9"/>
+      <c r="M21" s="1">
+        <f t="shared" si="10"/>
         <v>1.4813813813813813E-3</v>
       </c>
-      <c r="N21" s="2">
-        <f t="shared" si="9"/>
+      <c r="N21" s="1">
+        <f t="shared" si="10"/>
         <v>1.718318318318318E-3</v>
       </c>
-      <c r="O21" s="2">
-        <f t="shared" si="9"/>
+      <c r="O21" s="1">
+        <f t="shared" si="10"/>
         <v>1.7474474474474476E-3</v>
       </c>
-      <c r="P21" s="2">
-        <f t="shared" si="9"/>
+      <c r="P21" s="1">
+        <f t="shared" si="10"/>
         <v>1.6710210210210208E-3</v>
       </c>
-      <c r="Q21" s="2">
-        <f t="shared" si="9"/>
+      <c r="Q21" s="1">
+        <f t="shared" si="10"/>
         <v>1.8328828828828828E-3</v>
       </c>
-      <c r="R21" s="2">
-        <f t="shared" si="9"/>
+      <c r="R21" s="1">
+        <f t="shared" si="10"/>
         <v>1.9018018018018019E-3</v>
       </c>
-      <c r="S21" s="2">
-        <f t="shared" si="9"/>
+      <c r="S21" s="1">
+        <f t="shared" si="10"/>
         <v>1.7276276276276276E-3</v>
       </c>
-      <c r="T21" s="2">
-        <f t="shared" si="9"/>
+      <c r="T21" s="1">
+        <f t="shared" si="10"/>
         <v>1.9315315315315315E-3</v>
       </c>
-      <c r="U21" s="2">
-        <f t="shared" si="9"/>
+      <c r="U21" s="1">
+        <f t="shared" si="10"/>
         <v>1.7623123123123121E-3</v>
       </c>
-      <c r="V21" s="2">
-        <f t="shared" si="9"/>
+      <c r="V21" s="1">
+        <f t="shared" si="10"/>
         <v>1.8444444444444443E-3</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <f>INTERCEPT(C16:C18,$B$16:$B$18)</f>
         <v>-4.4444444444458053E-4</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" ref="D22:V22" si="10">INTERCEPT(D16:D18,$B$16:$B$18)</f>
+      <c r="D22" s="1">
+        <f t="shared" ref="D22:V22" si="11">INTERCEPT(D16:D18,$B$16:$B$18)</f>
         <v>1.4555555555555544E-2</v>
       </c>
-      <c r="E22" s="2">
-        <f t="shared" si="10"/>
+      <c r="E22" s="1">
+        <f t="shared" si="11"/>
         <v>1.4166666666666661E-2</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="10"/>
+      <c r="F22" s="1">
+        <f t="shared" si="11"/>
         <v>1.8777777777777782E-2</v>
       </c>
-      <c r="G22" s="2">
-        <f t="shared" si="10"/>
+      <c r="G22" s="1">
+        <f t="shared" si="11"/>
         <v>2.6722222222222147E-2</v>
       </c>
-      <c r="H22" s="2">
-        <f t="shared" si="10"/>
+      <c r="H22" s="1">
+        <f t="shared" si="11"/>
         <v>2.4111111111111083E-2</v>
       </c>
-      <c r="I22" s="2">
-        <f t="shared" si="10"/>
+      <c r="I22" s="1">
+        <f t="shared" si="11"/>
         <v>2.1333333333333371E-2</v>
       </c>
-      <c r="J22" s="2">
-        <f t="shared" si="10"/>
+      <c r="J22" s="1">
+        <f t="shared" si="11"/>
         <v>3.4111111111111148E-2</v>
       </c>
-      <c r="K22" s="2">
-        <f t="shared" si="10"/>
+      <c r="K22" s="1">
+        <f t="shared" si="11"/>
         <v>2.8166666666666618E-2</v>
       </c>
-      <c r="L22" s="2">
-        <f t="shared" si="10"/>
+      <c r="L22" s="1">
+        <f t="shared" si="11"/>
         <v>4.69444444444444E-2</v>
       </c>
-      <c r="M22" s="2">
-        <f t="shared" si="10"/>
+      <c r="M22" s="1">
+        <f t="shared" si="11"/>
         <v>4.6555555555555461E-2</v>
       </c>
-      <c r="N22" s="2">
-        <f t="shared" si="10"/>
+      <c r="N22" s="1">
+        <f t="shared" si="11"/>
         <v>4.9888888888888983E-2</v>
       </c>
-      <c r="O22" s="2">
-        <f t="shared" si="10"/>
+      <c r="O22" s="1">
+        <f t="shared" si="11"/>
         <v>4.9444444444444402E-2</v>
       </c>
-      <c r="P22" s="2">
-        <f t="shared" si="10"/>
+      <c r="P22" s="1">
+        <f t="shared" si="11"/>
         <v>5.8388888888888935E-2</v>
       </c>
-      <c r="Q22" s="2">
-        <f t="shared" si="10"/>
+      <c r="Q22" s="1">
+        <f t="shared" si="11"/>
         <v>4.9499999999999988E-2</v>
       </c>
-      <c r="R22" s="2">
-        <f t="shared" si="10"/>
+      <c r="R22" s="1">
+        <f t="shared" si="11"/>
         <v>4.6000000000000041E-2</v>
       </c>
-      <c r="S22" s="2">
-        <f t="shared" si="10"/>
+      <c r="S22" s="1">
+        <f t="shared" si="11"/>
         <v>6.8111111111111011E-2</v>
       </c>
-      <c r="T22" s="2">
-        <f t="shared" si="10"/>
+      <c r="T22" s="1">
+        <f t="shared" si="11"/>
         <v>6.2333333333333352E-2</v>
       </c>
-      <c r="U22" s="2">
-        <f t="shared" si="10"/>
+      <c r="U22" s="1">
+        <f t="shared" si="11"/>
         <v>8.4277777777777896E-2</v>
       </c>
-      <c r="V22" s="2">
-        <f t="shared" si="10"/>
+      <c r="V22" s="1">
+        <f t="shared" si="11"/>
         <v>7.3888888888889004E-2</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>10</v>
       </c>
       <c r="C23">
@@ -29976,8 +30580,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3">
         <v>100</v>
       </c>
       <c r="C24">
@@ -30042,8 +30646,8 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3">
         <v>1000</v>
       </c>
       <c r="C25">
@@ -30108,8 +30712,8 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="4">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3">
         <v>10000</v>
       </c>
       <c r="C26">
@@ -30117,11 +30721,11 @@
         <v>8.2146531531531544</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:V26" si="11">$B$26*D28+D29</f>
+        <f t="shared" ref="D26:V26" si="12">$B$26*D28+D29</f>
         <v>4.4770900900900905</v>
       </c>
       <c r="E26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.9597117117117095</v>
       </c>
       <c r="F26">
@@ -30129,73 +30733,73 @@
         <v>3.6855585585585606</v>
       </c>
       <c r="G26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.4198648648648629</v>
       </c>
       <c r="H26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.4128198198198199</v>
       </c>
       <c r="I26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5825360360360348</v>
       </c>
       <c r="J26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5596351351351361</v>
       </c>
       <c r="K26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.4168243243243239</v>
       </c>
       <c r="L26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.3639729729729724</v>
       </c>
       <c r="M26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5375990990991002</v>
       </c>
       <c r="N26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.0792477477477478</v>
       </c>
       <c r="O26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.6225990990990997</v>
       </c>
       <c r="P26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.142288288288289</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.9557882882882875</v>
       </c>
       <c r="R26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.322054054054056</v>
       </c>
       <c r="S26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.7453693693693686</v>
       </c>
       <c r="T26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.4090225225225237</v>
       </c>
       <c r="U26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.3773153153153159</v>
       </c>
       <c r="V26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5705000000000009</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="4">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3">
         <v>100000</v>
       </c>
       <c r="C27">
@@ -30203,259 +30807,259 @@
         <v>66.093031531531551</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:V27" si="12">$B$27*D28+D29</f>
+        <f t="shared" ref="D27:V27" si="13">$B$27*D28+D29</f>
         <v>28.287900900900905</v>
       </c>
       <c r="E27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.365117117117091</v>
       </c>
       <c r="F27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30.712585585585607</v>
       </c>
       <c r="G27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.203648648648631</v>
       </c>
       <c r="H27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.791198198198199</v>
       </c>
       <c r="I27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.406860360360348</v>
       </c>
       <c r="J27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.275851351351363</v>
       </c>
       <c r="K27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.835743243243243</v>
       </c>
       <c r="L27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.120729729729721</v>
       </c>
       <c r="M27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18.929490990990999</v>
       </c>
       <c r="N27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14.308977477477477</v>
       </c>
       <c r="O27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.014490990990996</v>
       </c>
       <c r="P27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14.736882882882893</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13.050382882882877</v>
       </c>
       <c r="R27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16.808540540540555</v>
       </c>
       <c r="S27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21.069693693693686</v>
       </c>
       <c r="T27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.611725225225236</v>
       </c>
       <c r="U27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.21515315315316</v>
       </c>
       <c r="V27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.07050000000001</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <f>SLOPE(C23:C25,$B$23:$B$25)</f>
         <v>6.4309309309309331E-4</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" ref="D28:V28" si="13">SLOPE(D23:D25,$B$23:$B$25)</f>
+      <c r="D28" s="1">
+        <f t="shared" ref="D28:V28" si="14">SLOPE(D23:D25,$B$23:$B$25)</f>
         <v>2.645645645645646E-4</v>
       </c>
-      <c r="E28" s="2">
-        <f t="shared" si="13"/>
+      <c r="E28" s="1">
+        <f t="shared" si="14"/>
         <v>2.1561561561561534E-4</v>
       </c>
-      <c r="F28" s="2">
-        <f t="shared" si="13"/>
+      <c r="F28" s="1">
+        <f t="shared" si="14"/>
         <v>2.8918918918918941E-4</v>
       </c>
-      <c r="G28" s="2">
-        <f t="shared" si="13"/>
+      <c r="G28" s="1">
+        <f t="shared" si="14"/>
         <v>1.5315315315315298E-4</v>
       </c>
-      <c r="H28" s="2">
-        <f t="shared" si="13"/>
+      <c r="H28" s="1">
+        <f t="shared" si="14"/>
         <v>1.5975975975975976E-4</v>
       </c>
-      <c r="I28" s="2">
-        <f t="shared" si="13"/>
+      <c r="I28" s="1">
+        <f t="shared" si="14"/>
         <v>1.758258258258257E-4</v>
       </c>
-      <c r="J28" s="2">
-        <f t="shared" si="13"/>
+      <c r="J28" s="1">
+        <f t="shared" si="14"/>
         <v>1.7462462462462474E-4</v>
       </c>
-      <c r="K28" s="2">
-        <f t="shared" si="13"/>
+      <c r="K28" s="1">
+        <f t="shared" si="14"/>
         <v>1.602102102102102E-4</v>
       </c>
-      <c r="L28" s="2">
-        <f t="shared" si="13"/>
+      <c r="L28" s="1">
+        <f t="shared" si="14"/>
         <v>1.5285285285285277E-4</v>
       </c>
-      <c r="M28" s="2">
-        <f t="shared" si="13"/>
+      <c r="M28" s="1">
+        <f t="shared" si="14"/>
         <v>1.7102102102102109E-4</v>
       </c>
-      <c r="N28" s="2">
-        <f t="shared" si="13"/>
+      <c r="N28" s="1">
+        <f t="shared" si="14"/>
         <v>1.2477477477477477E-4</v>
       </c>
-      <c r="O28" s="2">
-        <f t="shared" si="13"/>
+      <c r="O28" s="1">
+        <f t="shared" si="14"/>
         <v>1.8213213213213219E-4</v>
       </c>
-      <c r="P28" s="2">
-        <f t="shared" si="13"/>
+      <c r="P28" s="1">
+        <f t="shared" si="14"/>
         <v>1.2882882882882894E-4</v>
       </c>
-      <c r="Q28" s="2">
-        <f t="shared" si="13"/>
+      <c r="Q28" s="1">
+        <f t="shared" si="14"/>
         <v>1.121621621621621E-4</v>
       </c>
-      <c r="R28" s="2">
-        <f t="shared" si="13"/>
+      <c r="R28" s="1">
+        <f t="shared" si="14"/>
         <v>1.4984984984984999E-4</v>
       </c>
-      <c r="S28" s="2">
-        <f t="shared" si="13"/>
+      <c r="S28" s="1">
+        <f t="shared" si="14"/>
         <v>1.9249249249249243E-4</v>
       </c>
-      <c r="T28" s="2">
-        <f t="shared" si="13"/>
+      <c r="T28" s="1">
+        <f t="shared" si="14"/>
         <v>1.5780780780780791E-4</v>
       </c>
-      <c r="U28" s="2">
-        <f t="shared" si="13"/>
+      <c r="U28" s="1">
+        <f t="shared" si="14"/>
         <v>1.5375375375375382E-4</v>
       </c>
-      <c r="V28" s="2">
-        <f t="shared" si="13"/>
+      <c r="V28" s="1">
+        <f t="shared" si="14"/>
         <v>1.7222222222222232E-4</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <f>INTERCEPT(C23:C25,$B$23:$B$25)</f>
         <v>1.783722222222222</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" ref="D29:V29" si="14">INTERCEPT(D23:D25,$B$23:$B$25)</f>
+      <c r="D29" s="1">
+        <f t="shared" ref="D29:V29" si="15">INTERCEPT(D23:D25,$B$23:$B$25)</f>
         <v>1.8314444444444444</v>
       </c>
-      <c r="E29" s="2">
-        <f t="shared" si="14"/>
+      <c r="E29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8035555555555558</v>
       </c>
-      <c r="F29" s="2">
-        <f t="shared" si="14"/>
+      <c r="F29" s="1">
+        <f t="shared" si="15"/>
         <v>1.7936666666666667</v>
       </c>
-      <c r="G29" s="2">
-        <f t="shared" si="14"/>
+      <c r="G29" s="1">
+        <f t="shared" si="15"/>
         <v>1.888333333333333</v>
       </c>
-      <c r="H29" s="2">
-        <f t="shared" si="14"/>
+      <c r="H29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8152222222222221</v>
       </c>
-      <c r="I29" s="2">
-        <f t="shared" si="14"/>
+      <c r="I29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8242777777777777</v>
       </c>
-      <c r="J29" s="2">
-        <f t="shared" si="14"/>
+      <c r="J29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8133888888888889</v>
       </c>
-      <c r="K29" s="2">
-        <f t="shared" si="14"/>
+      <c r="K29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8147222222222221</v>
       </c>
-      <c r="L29" s="2">
-        <f t="shared" si="14"/>
+      <c r="L29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8354444444444447</v>
       </c>
-      <c r="M29" s="2">
-        <f t="shared" si="14"/>
+      <c r="M29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8273888888888892</v>
       </c>
-      <c r="N29" s="2">
-        <f t="shared" si="14"/>
+      <c r="N29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8315000000000003</v>
       </c>
-      <c r="O29" s="2">
-        <f t="shared" si="14"/>
+      <c r="O29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8012777777777778</v>
       </c>
-      <c r="P29" s="2">
-        <f t="shared" si="14"/>
+      <c r="P29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8539999999999999</v>
       </c>
-      <c r="Q29" s="2">
-        <f t="shared" si="14"/>
+      <c r="Q29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8341666666666665</v>
       </c>
-      <c r="R29" s="2">
-        <f t="shared" si="14"/>
+      <c r="R29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8235555555555558</v>
       </c>
-      <c r="S29" s="2">
-        <f t="shared" si="14"/>
+      <c r="S29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8204444444444443</v>
       </c>
-      <c r="T29" s="2">
-        <f t="shared" si="14"/>
+      <c r="T29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8309444444444445</v>
       </c>
-      <c r="U29" s="2">
-        <f t="shared" si="14"/>
+      <c r="U29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8397777777777777</v>
       </c>
-      <c r="V29" s="2">
-        <f t="shared" si="14"/>
+      <c r="V29" s="1">
+        <f t="shared" si="15"/>
         <v>1.8482777777777779</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>10</v>
       </c>
       <c r="C30">
@@ -30520,8 +31124,8 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="4">
+      <c r="A31" s="8"/>
+      <c r="B31" s="3">
         <v>100</v>
       </c>
       <c r="C31">
@@ -30586,8 +31190,8 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="4">
+      <c r="A32" s="8"/>
+      <c r="B32" s="3">
         <v>1000</v>
       </c>
       <c r="C32">
@@ -30664,8 +31268,8 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="4">
+      <c r="A33" s="8"/>
+      <c r="B33" s="3">
         <v>10000</v>
       </c>
       <c r="C33">
@@ -30673,85 +31277,85 @@
         <v>181.77274324324324</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:V33" si="15">$B$33*D35+D36</f>
+        <f t="shared" ref="D33:V33" si="16">$B$33*D35+D36</f>
         <v>168.19151801801803</v>
       </c>
       <c r="E33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>111.9182972972973</v>
       </c>
       <c r="F33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>79.255306306306323</v>
       </c>
       <c r="G33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>59.449653153153157</v>
       </c>
       <c r="H33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>69.097671171171186</v>
       </c>
       <c r="I33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>61.948509009009008</v>
       </c>
       <c r="J33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>51.638387387387397</v>
       </c>
       <c r="K33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49.612882882882879</v>
       </c>
       <c r="L33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>54.603229729729726</v>
       </c>
       <c r="M33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>44.940306306306312</v>
       </c>
       <c r="N33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43.213441441441432</v>
       </c>
       <c r="O33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>47.683040540540532</v>
       </c>
       <c r="P33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>59.582081081081093</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>50.796036036036028</v>
       </c>
       <c r="R33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>64.5214009009009</v>
       </c>
       <c r="S33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>69.205878378378401</v>
       </c>
       <c r="T33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>51.86018018018018</v>
       </c>
       <c r="U33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>54.128427927927916</v>
       </c>
       <c r="V33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>57.046990990990984</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="6">
+      <c r="A34" s="8"/>
+      <c r="B34" s="5">
         <v>100000</v>
       </c>
       <c r="C34">
@@ -30759,259 +31363,259 @@
         <v>1824.4619324324326</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:V34" si="16">$B$34*D35+D36</f>
+        <f t="shared" ref="D34:V34" si="17">$B$34*D35+D36</f>
         <v>1687.8536801801802</v>
       </c>
       <c r="E34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1123.5939729729728</v>
       </c>
       <c r="F34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>795.01206306306324</v>
       </c>
       <c r="G34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>596.32803153153156</v>
       </c>
       <c r="H34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>693.13821171171185</v>
       </c>
       <c r="I34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>621.5295900900901</v>
       </c>
       <c r="J34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>518.12487387387387</v>
       </c>
       <c r="K34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>497.55882882882878</v>
       </c>
       <c r="L34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>547.67079729729733</v>
       </c>
       <c r="M34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>450.69706306306313</v>
       </c>
       <c r="N34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>433.18641441441434</v>
       </c>
       <c r="O34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>478.04790540540534</v>
       </c>
       <c r="P34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>597.31181081081093</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>509.12036036036034</v>
       </c>
       <c r="R34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>647.12950900900898</v>
       </c>
       <c r="S34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>694.11128378378396</v>
       </c>
       <c r="T34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>519.48180180180179</v>
       </c>
       <c r="U34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>542.97977927927923</v>
       </c>
       <c r="V34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>571.96590990990978</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <f>SLOPE(C30:C32,$B$30:$B$32)</f>
         <v>1.8252102102102104E-2</v>
       </c>
-      <c r="D35" s="2">
-        <f t="shared" ref="D35:V35" si="17">SLOPE(D30:D32,$B$30:$B$32)</f>
+      <c r="D35" s="1">
+        <f t="shared" ref="D35:V35" si="18">SLOPE(D30:D32,$B$30:$B$32)</f>
         <v>1.6885135135135135E-2</v>
       </c>
-      <c r="E35" s="2">
-        <f t="shared" si="17"/>
+      <c r="E35" s="1">
+        <f t="shared" si="18"/>
         <v>1.124084084084084E-2</v>
       </c>
-      <c r="F35" s="2">
-        <f t="shared" si="17"/>
+      <c r="F35" s="1">
+        <f t="shared" si="18"/>
         <v>7.9528528528528541E-3</v>
       </c>
-      <c r="G35" s="2">
-        <f t="shared" si="17"/>
+      <c r="G35" s="1">
+        <f t="shared" si="18"/>
         <v>5.9653153153153152E-3</v>
       </c>
-      <c r="H35" s="2">
-        <f t="shared" si="17"/>
+      <c r="H35" s="1">
+        <f t="shared" si="18"/>
         <v>6.9337837837837851E-3</v>
       </c>
-      <c r="I35" s="2">
-        <f t="shared" si="17"/>
+      <c r="I35" s="1">
+        <f t="shared" si="18"/>
         <v>6.2175675675675678E-3</v>
       </c>
-      <c r="J35" s="2">
-        <f t="shared" si="17"/>
+      <c r="J35" s="1">
+        <f t="shared" si="18"/>
         <v>5.183183183183184E-3</v>
       </c>
-      <c r="K35" s="2">
-        <f t="shared" si="17"/>
+      <c r="K35" s="1">
+        <f t="shared" si="18"/>
         <v>4.9771771771771767E-3</v>
       </c>
-      <c r="L35" s="2">
-        <f t="shared" si="17"/>
+      <c r="L35" s="1">
+        <f t="shared" si="18"/>
         <v>5.4785285285285281E-3</v>
       </c>
-      <c r="M35" s="2">
-        <f t="shared" si="17"/>
+      <c r="M35" s="1">
+        <f t="shared" si="18"/>
         <v>4.5084084084084089E-3</v>
       </c>
-      <c r="N35" s="2">
-        <f t="shared" si="17"/>
+      <c r="N35" s="1">
+        <f t="shared" si="18"/>
         <v>4.3330330330330321E-3</v>
       </c>
-      <c r="O35" s="2">
-        <f t="shared" si="17"/>
+      <c r="O35" s="1">
+        <f t="shared" si="18"/>
         <v>4.7818318318318311E-3</v>
       </c>
-      <c r="P35" s="2">
-        <f t="shared" si="17"/>
+      <c r="P35" s="1">
+        <f t="shared" si="18"/>
         <v>5.974774774774776E-3</v>
       </c>
-      <c r="Q35" s="2">
-        <f t="shared" si="17"/>
+      <c r="Q35" s="1">
+        <f t="shared" si="18"/>
         <v>5.0924924924924918E-3</v>
       </c>
-      <c r="R35" s="2">
-        <f t="shared" si="17"/>
+      <c r="R35" s="1">
+        <f t="shared" si="18"/>
         <v>6.4734234234234238E-3</v>
       </c>
-      <c r="S35" s="2">
-        <f t="shared" si="17"/>
+      <c r="S35" s="1">
+        <f t="shared" si="18"/>
         <v>6.9433933933933951E-3</v>
       </c>
-      <c r="T35" s="2">
-        <f t="shared" si="17"/>
+      <c r="T35" s="1">
+        <f t="shared" si="18"/>
         <v>5.195795795795796E-3</v>
       </c>
-      <c r="U35" s="2">
-        <f t="shared" si="17"/>
+      <c r="U35" s="1">
+        <f t="shared" si="18"/>
         <v>5.4316816816816806E-3</v>
       </c>
-      <c r="V35" s="2">
-        <f t="shared" si="17"/>
+      <c r="V35" s="1">
+        <f t="shared" si="18"/>
         <v>5.7213213213213208E-3</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <f>INTERCEPT(C30:C32,$B$30:$B$32)</f>
         <v>-0.74827777777777893</v>
       </c>
-      <c r="D36" s="2">
-        <f t="shared" ref="D36:V36" si="18">INTERCEPT(D30:D32,$B$30:$B$32)</f>
+      <c r="D36" s="1">
+        <f t="shared" ref="D36:V36" si="19">INTERCEPT(D30:D32,$B$30:$B$32)</f>
         <v>-0.65983333333333238</v>
       </c>
-      <c r="E36" s="2">
-        <f t="shared" si="18"/>
+      <c r="E36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.49011111111111072</v>
       </c>
-      <c r="F36" s="2">
-        <f t="shared" si="18"/>
+      <c r="F36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.27322222222222203</v>
       </c>
-      <c r="G36" s="2">
-        <f t="shared" si="18"/>
+      <c r="G36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.20350000000000001</v>
       </c>
-      <c r="H36" s="2">
-        <f t="shared" si="18"/>
+      <c r="H36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.24016666666666708</v>
       </c>
-      <c r="I36" s="2">
-        <f t="shared" si="18"/>
+      <c r="I36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.22716666666666674</v>
       </c>
-      <c r="J36" s="2">
-        <f t="shared" si="18"/>
+      <c r="J36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.19344444444444475</v>
       </c>
-      <c r="K36" s="2">
-        <f t="shared" si="18"/>
+      <c r="K36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.15888888888888864</v>
       </c>
-      <c r="L36" s="2">
-        <f t="shared" si="18"/>
+      <c r="L36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.18205555555555564</v>
       </c>
-      <c r="M36" s="2">
-        <f t="shared" si="18"/>
+      <c r="M36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.14377777777777823</v>
       </c>
-      <c r="N36" s="2">
-        <f t="shared" si="18"/>
+      <c r="N36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.1168888888888886</v>
       </c>
-      <c r="O36" s="2">
-        <f t="shared" si="18"/>
+      <c r="O36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.13527777777777783</v>
       </c>
-      <c r="P36" s="2">
-        <f t="shared" si="18"/>
+      <c r="P36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.16566666666666663</v>
       </c>
-      <c r="Q36" s="2">
-        <f t="shared" si="18"/>
+      <c r="Q36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.12888888888888861</v>
       </c>
-      <c r="R36" s="2">
-        <f t="shared" si="18"/>
+      <c r="R36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.21283333333333365</v>
       </c>
-      <c r="S36" s="2">
-        <f t="shared" si="18"/>
+      <c r="S36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.22805555555555612</v>
       </c>
-      <c r="T36" s="2">
-        <f t="shared" si="18"/>
+      <c r="T36" s="1">
+        <f t="shared" si="19"/>
         <v>-9.7777777777777963E-2</v>
       </c>
-      <c r="U36" s="2">
-        <f t="shared" si="18"/>
+      <c r="U36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.18838888888888872</v>
       </c>
-      <c r="V36" s="2">
-        <f t="shared" si="18"/>
+      <c r="V36" s="1">
+        <f t="shared" si="19"/>
         <v>-0.16622222222222183</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>10</v>
       </c>
       <c r="C37">
@@ -31076,8 +31680,8 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="4">
+      <c r="A38" s="8"/>
+      <c r="B38" s="3">
         <v>100</v>
       </c>
       <c r="C38">
@@ -31142,8 +31746,8 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="4">
+      <c r="A39" s="8"/>
+      <c r="B39" s="3">
         <v>1000</v>
       </c>
       <c r="C39">
@@ -31208,8 +31812,8 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="4">
+      <c r="A40" s="8"/>
+      <c r="B40" s="3">
         <v>10000</v>
       </c>
       <c r="C40">
@@ -31217,85 +31821,85 @@
         <v>1026.7948648648648</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:V40" si="19">$B$40*D42+D43</f>
+        <f t="shared" ref="D40:V40" si="20">$B$40*D42+D43</f>
         <v>601.7206666666666</v>
       </c>
       <c r="E40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>422.53751351351366</v>
       </c>
       <c r="F40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>330.33404954954949</v>
       </c>
       <c r="G40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>255.19335585585586</v>
       </c>
       <c r="H40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>271.65027027027031</v>
       </c>
       <c r="I40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>228.57148648648649</v>
       </c>
       <c r="J40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>170.38984234234238</v>
       </c>
       <c r="K40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>229.35667567567569</v>
       </c>
       <c r="L40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>279.44311261261259</v>
       </c>
       <c r="M40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>158.14016666666669</v>
       </c>
       <c r="N40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>275.11876126126123</v>
       </c>
       <c r="O40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>225.61509459459458</v>
       </c>
       <c r="P40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>268.20764414414407</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>206.19585135135137</v>
       </c>
       <c r="R40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>236.72756306306306</v>
       </c>
       <c r="S40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>236.24688288288291</v>
       </c>
       <c r="T40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>162.44862612612613</v>
       </c>
       <c r="U40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>276.75375225225224</v>
       </c>
       <c r="V40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>227.44338738738742</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="6">
+      <c r="A41" s="8"/>
+      <c r="B41" s="5">
         <v>100000</v>
       </c>
       <c r="C41">
@@ -31303,259 +31907,259 @@
         <v>10275.578648648649</v>
       </c>
       <c r="D41">
-        <f t="shared" ref="D41:V41" si="20">$B$41*D42+D43</f>
+        <f t="shared" ref="D41:V41" si="21">$B$41*D42+D43</f>
         <v>6007.7206666666661</v>
       </c>
       <c r="E41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4210.1591351351362</v>
       </c>
       <c r="F41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3283.7799954954949</v>
       </c>
       <c r="G41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2527.3960585585583</v>
       </c>
       <c r="H41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2694.0827027027026</v>
       </c>
       <c r="I41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2250.949864864865</v>
       </c>
       <c r="J41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1671.9709234234235</v>
       </c>
       <c r="K41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2258.4377567567572</v>
       </c>
       <c r="L41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2761.4566261261261</v>
       </c>
       <c r="M41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1543.6401666666668</v>
       </c>
       <c r="N41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2717.9701126126129</v>
       </c>
       <c r="O41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2223.4664459459455</v>
       </c>
       <c r="P41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2648.0049414414411</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2024.8580135135135</v>
       </c>
       <c r="R41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2331.7951306306309</v>
       </c>
       <c r="S41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2325.1928288288291</v>
       </c>
       <c r="T41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1583.0837612612613</v>
       </c>
       <c r="U41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2730.5240225225225</v>
       </c>
       <c r="V41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2233.9298738738739</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <f>SLOPE(C37:C39,$B$37:$B$39)</f>
         <v>0.10276426426426426</v>
       </c>
-      <c r="D42" s="2">
-        <f t="shared" ref="D42:V42" si="21">SLOPE(D37:D39,$B$37:$B$39)</f>
+      <c r="D42" s="1">
+        <f t="shared" ref="D42:V42" si="22">SLOPE(D37:D39,$B$37:$B$39)</f>
         <v>6.0066666666666664E-2</v>
       </c>
-      <c r="E42" s="2">
-        <f t="shared" si="21"/>
+      <c r="E42" s="1">
+        <f t="shared" si="22"/>
         <v>4.2084684684684695E-2</v>
       </c>
-      <c r="F42" s="2">
-        <f t="shared" si="21"/>
+      <c r="F42" s="1">
+        <f t="shared" si="22"/>
         <v>3.281606606606606E-2</v>
       </c>
-      <c r="G42" s="2">
-        <f t="shared" si="21"/>
+      <c r="G42" s="1">
+        <f t="shared" si="22"/>
         <v>2.5246696696696696E-2</v>
       </c>
-      <c r="H42" s="2">
-        <f t="shared" si="21"/>
+      <c r="H42" s="1">
+        <f t="shared" si="22"/>
         <v>2.6915915915915918E-2</v>
       </c>
-      <c r="I42" s="2">
-        <f t="shared" si="21"/>
+      <c r="I42" s="1">
+        <f t="shared" si="22"/>
         <v>2.2470870870870872E-2</v>
       </c>
-      <c r="J42" s="2">
-        <f t="shared" si="21"/>
+      <c r="J42" s="1">
+        <f t="shared" si="22"/>
         <v>1.6684234234234235E-2</v>
       </c>
-      <c r="K42" s="2">
-        <f t="shared" si="21"/>
+      <c r="K42" s="1">
+        <f t="shared" si="22"/>
         <v>2.2545345345345347E-2</v>
       </c>
-      <c r="L42" s="2">
-        <f t="shared" si="21"/>
+      <c r="L42" s="1">
+        <f t="shared" si="22"/>
         <v>2.7577927927927928E-2</v>
       </c>
-      <c r="M42" s="2">
-        <f t="shared" si="21"/>
+      <c r="M42" s="1">
+        <f t="shared" si="22"/>
         <v>1.5394444444444445E-2</v>
       </c>
-      <c r="N42" s="2">
-        <f t="shared" si="21"/>
+      <c r="N42" s="1">
+        <f t="shared" si="22"/>
         <v>2.7142792792792792E-2</v>
       </c>
-      <c r="O42" s="2">
-        <f t="shared" si="21"/>
+      <c r="O42" s="1">
+        <f t="shared" si="22"/>
         <v>2.2198348348348346E-2</v>
       </c>
-      <c r="P42" s="2">
-        <f t="shared" si="21"/>
+      <c r="P42" s="1">
+        <f t="shared" si="22"/>
         <v>2.6442192192192189E-2</v>
       </c>
-      <c r="Q42" s="2">
-        <f t="shared" si="21"/>
+      <c r="Q42" s="1">
+        <f t="shared" si="22"/>
         <v>2.0207357357357358E-2</v>
       </c>
-      <c r="R42" s="2">
-        <f t="shared" si="21"/>
+      <c r="R42" s="1">
+        <f t="shared" si="22"/>
         <v>2.327852852852853E-2</v>
       </c>
-      <c r="S42" s="2">
-        <f t="shared" si="21"/>
+      <c r="S42" s="1">
+        <f t="shared" si="22"/>
         <v>2.3210510510510513E-2</v>
       </c>
-      <c r="T42" s="2">
-        <f t="shared" si="21"/>
+      <c r="T42" s="1">
+        <f t="shared" si="22"/>
         <v>1.5784834834834834E-2</v>
       </c>
-      <c r="U42" s="2">
-        <f t="shared" si="21"/>
+      <c r="U42" s="1">
+        <f t="shared" si="22"/>
         <v>2.7264114114114113E-2</v>
       </c>
-      <c r="V42" s="2">
-        <f t="shared" si="21"/>
+      <c r="V42" s="1">
+        <f t="shared" si="22"/>
         <v>2.2294294294294296E-2</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <f>INTERCEPT(C37:C39,$B$37:$B$39)</f>
         <v>-0.84777777777777175</v>
       </c>
-      <c r="D43" s="2">
-        <f t="shared" ref="D43:V43" si="22">INTERCEPT(D37:D39,$B$37:$B$39)</f>
+      <c r="D43" s="1">
+        <f t="shared" ref="D43:V43" si="23">INTERCEPT(D37:D39,$B$37:$B$39)</f>
         <v>1.054000000000002</v>
       </c>
-      <c r="E43" s="2">
-        <f t="shared" si="22"/>
+      <c r="E43" s="1">
+        <f t="shared" si="23"/>
         <v>1.6906666666666634</v>
       </c>
-      <c r="F43" s="2">
-        <f t="shared" si="22"/>
+      <c r="F43" s="1">
+        <f t="shared" si="23"/>
         <v>2.1733888888888906</v>
       </c>
-      <c r="G43" s="2">
-        <f t="shared" si="22"/>
+      <c r="G43" s="1">
+        <f t="shared" si="23"/>
         <v>2.7263888888888896</v>
       </c>
-      <c r="H43" s="2">
-        <f t="shared" si="22"/>
+      <c r="H43" s="1">
+        <f t="shared" si="23"/>
         <v>2.4911111111111115</v>
       </c>
-      <c r="I43" s="2">
-        <f t="shared" si="22"/>
+      <c r="I43" s="1">
+        <f t="shared" si="23"/>
         <v>3.8627777777777776</v>
       </c>
-      <c r="J43" s="2">
-        <f t="shared" si="22"/>
+      <c r="J43" s="1">
+        <f t="shared" si="23"/>
         <v>3.5474999999999994</v>
       </c>
-      <c r="K43" s="2">
-        <f t="shared" si="22"/>
+      <c r="K43" s="1">
+        <f t="shared" si="23"/>
         <v>3.9032222222222206</v>
       </c>
-      <c r="L43" s="2">
-        <f t="shared" si="22"/>
+      <c r="L43" s="1">
+        <f t="shared" si="23"/>
         <v>3.6638333333333311</v>
       </c>
-      <c r="M43" s="2">
-        <f t="shared" si="22"/>
+      <c r="M43" s="1">
+        <f t="shared" si="23"/>
         <v>4.1957222222222228</v>
       </c>
-      <c r="N43" s="2">
-        <f t="shared" si="22"/>
+      <c r="N43" s="1">
+        <f t="shared" si="23"/>
         <v>3.6908333333333339</v>
       </c>
-      <c r="O43" s="2">
-        <f t="shared" si="22"/>
+      <c r="O43" s="1">
+        <f t="shared" si="23"/>
         <v>3.6316111111111109</v>
       </c>
-      <c r="P43" s="2">
-        <f t="shared" si="22"/>
+      <c r="P43" s="1">
+        <f t="shared" si="23"/>
         <v>3.7857222222222227</v>
       </c>
-      <c r="Q43" s="2">
-        <f t="shared" si="22"/>
+      <c r="Q43" s="1">
+        <f t="shared" si="23"/>
         <v>4.1222777777777759</v>
       </c>
-      <c r="R43" s="2">
-        <f t="shared" si="22"/>
+      <c r="R43" s="1">
+        <f t="shared" si="23"/>
         <v>3.9422777777777753</v>
       </c>
-      <c r="S43" s="2">
-        <f t="shared" si="22"/>
+      <c r="S43" s="1">
+        <f t="shared" si="23"/>
         <v>4.1417777777777776</v>
       </c>
-      <c r="T43" s="2">
-        <f t="shared" si="22"/>
+      <c r="T43" s="1">
+        <f t="shared" si="23"/>
         <v>4.6002777777777784</v>
       </c>
-      <c r="U43" s="2">
-        <f t="shared" si="22"/>
+      <c r="U43" s="1">
+        <f t="shared" si="23"/>
         <v>4.1126111111111108</v>
       </c>
-      <c r="V43" s="2">
-        <f t="shared" si="22"/>
+      <c r="V43" s="1">
+        <f t="shared" si="23"/>
         <v>4.500444444444442</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>10</v>
       </c>
       <c r="C44">
@@ -31567,343 +32171,343 @@
         <v>3.5840000000000001</v>
       </c>
       <c r="E44">
-        <f t="shared" ref="E44:V48" si="23">SUM(E2,E9,E16,E23,E30)</f>
+        <f t="shared" ref="E44:V48" si="24">SUM(E2,E9,E16,E23,E30)</f>
         <v>3.4939999999999998</v>
       </c>
       <c r="F44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.4930000000000003</v>
       </c>
       <c r="G44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.5339999999999994</v>
       </c>
       <c r="H44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.6379999999999999</v>
       </c>
       <c r="I44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.7580000000000009</v>
       </c>
       <c r="J44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.6339999999999999</v>
       </c>
       <c r="K44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.8390000000000004</v>
       </c>
       <c r="L44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.8179999999999996</v>
       </c>
       <c r="M44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.8759999999999994</v>
       </c>
       <c r="N44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.8319999999999999</v>
       </c>
       <c r="O44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.2610000000000001</v>
       </c>
       <c r="P44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.8369999999999997</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.8730000000000002</v>
       </c>
       <c r="R44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.7949999999999999</v>
       </c>
       <c r="S44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.8969999999999994</v>
       </c>
       <c r="T44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.7039999999999997</v>
       </c>
       <c r="U44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.8840000000000003</v>
       </c>
       <c r="V44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.902000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="4">
+      <c r="A45" s="8"/>
+      <c r="B45" s="3">
         <v>100</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:R48" si="24">SUM(C3,C10,C17,C24,C31)</f>
+        <f t="shared" ref="C45:R48" si="25">SUM(C3,C10,C17,C24,C31)</f>
         <v>5.6890000000000001</v>
       </c>
       <c r="D45">
+        <f t="shared" si="25"/>
+        <v>4.9309999999999992</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="25"/>
+        <v>4.37</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="25"/>
+        <v>4.3559999999999999</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="25"/>
+        <v>4.6319999999999997</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="25"/>
+        <v>4.2109999999999994</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="25"/>
+        <v>5.3659999999999997</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="25"/>
+        <v>5.2970000000000006</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="25"/>
+        <v>5.3689999999999998</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="25"/>
+        <v>5.447000000000001</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="25"/>
+        <v>5.1499999999999995</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="25"/>
+        <v>5.4409999999999998</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="25"/>
+        <v>5.3959999999999999</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="25"/>
+        <v>5.5570000000000004</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="25"/>
+        <v>5.53</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="25"/>
+        <v>5.5820000000000007</v>
+      </c>
+      <c r="S45">
         <f t="shared" si="24"/>
-        <v>4.9309999999999992</v>
-      </c>
-      <c r="E45">
+        <v>5.88</v>
+      </c>
+      <c r="T45">
         <f t="shared" si="24"/>
-        <v>4.37</v>
-      </c>
-      <c r="F45">
+        <v>6.2309999999999999</v>
+      </c>
+      <c r="U45">
         <f t="shared" si="24"/>
-        <v>4.3559999999999999</v>
-      </c>
-      <c r="G45">
+        <v>6.2819999999999991</v>
+      </c>
+      <c r="V45">
         <f t="shared" si="24"/>
-        <v>4.6319999999999997</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="24"/>
-        <v>4.2109999999999994</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="24"/>
-        <v>5.3659999999999997</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="24"/>
-        <v>5.2970000000000006</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="24"/>
-        <v>5.3689999999999998</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="24"/>
-        <v>5.447000000000001</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="24"/>
-        <v>5.1499999999999995</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="24"/>
-        <v>5.4409999999999998</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="24"/>
-        <v>5.3959999999999999</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="24"/>
-        <v>5.5570000000000004</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="24"/>
-        <v>5.53</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="24"/>
-        <v>5.5820000000000007</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="23"/>
-        <v>5.88</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="23"/>
-        <v>6.2309999999999999</v>
-      </c>
-      <c r="U45">
-        <f t="shared" si="23"/>
-        <v>6.2819999999999991</v>
-      </c>
-      <c r="V45">
-        <f t="shared" si="23"/>
         <v>6.5260000000000007</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="4">
+      <c r="A46" s="8"/>
+      <c r="B46" s="3">
         <v>1000</v>
       </c>
       <c r="C46">
+        <f t="shared" si="25"/>
+        <v>102.25200000000001</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="25"/>
+        <v>61.31</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="25"/>
+        <v>43.91</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="25"/>
+        <v>35.085000000000001</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="25"/>
+        <v>29.025000000000002</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="25"/>
+        <v>28.490000000000002</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="25"/>
+        <v>26.396999999999998</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="25"/>
+        <v>23.218999999999998</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="25"/>
+        <v>25.515999999999998</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="25"/>
+        <v>26.326999999999998</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="25"/>
+        <v>24.018999999999995</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="25"/>
+        <v>25.916999999999998</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="25"/>
+        <v>25.868000000000002</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="25"/>
+        <v>26.302999999999997</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="25"/>
+        <v>24.881999999999998</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="25"/>
+        <v>26.280000000000005</v>
+      </c>
+      <c r="S46">
         <f t="shared" si="24"/>
-        <v>102.25200000000001</v>
-      </c>
-      <c r="D46">
+        <v>27.400000000000002</v>
+      </c>
+      <c r="T46">
         <f t="shared" si="24"/>
-        <v>61.31</v>
-      </c>
-      <c r="E46">
+        <v>25.286999999999999</v>
+      </c>
+      <c r="U46">
         <f t="shared" si="24"/>
-        <v>43.91</v>
-      </c>
-      <c r="F46">
+        <v>26.421999999999997</v>
+      </c>
+      <c r="V46">
         <f t="shared" si="24"/>
-        <v>35.085000000000001</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="24"/>
-        <v>29.025000000000002</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="24"/>
-        <v>28.490000000000002</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="24"/>
-        <v>26.396999999999998</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="24"/>
-        <v>23.218999999999998</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="24"/>
-        <v>25.515999999999998</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="24"/>
-        <v>26.326999999999998</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="24"/>
-        <v>24.018999999999995</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="24"/>
-        <v>25.916999999999998</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="24"/>
-        <v>25.868000000000002</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="24"/>
-        <v>26.302999999999997</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="24"/>
-        <v>24.881999999999998</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="24"/>
-        <v>26.280000000000005</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="23"/>
-        <v>27.400000000000002</v>
-      </c>
-      <c r="T46">
-        <f t="shared" si="23"/>
-        <v>25.286999999999999</v>
-      </c>
-      <c r="U46">
-        <f t="shared" si="23"/>
-        <v>26.421999999999997</v>
-      </c>
-      <c r="V46">
-        <f t="shared" si="23"/>
         <v>26.810000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="4">
+      <c r="A47" s="8"/>
+      <c r="B47" s="3">
         <v>10000</v>
       </c>
       <c r="C47">
+        <f t="shared" si="25"/>
+        <v>1026.7894189189187</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="25"/>
+        <v>601.71266216216213</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="25"/>
+        <v>422.53351351351353</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="25"/>
+        <v>329.33004954954959</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="25"/>
+        <v>265.64431081081085</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="25"/>
+        <v>261.16995945945945</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="25"/>
+        <v>238.5580315315315</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="25"/>
+        <v>201.73480180180178</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="25"/>
+        <v>221.89371621621621</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="25"/>
+        <v>227.17479279279274</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="25"/>
+        <v>203.91796846846847</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="25"/>
+        <v>222.83598198198203</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="25"/>
+        <v>225.61609909909907</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="25"/>
+        <v>226.37981981981986</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="25"/>
+        <v>211.43523423423426</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="25"/>
+        <v>226.26816216216218</v>
+      </c>
+      <c r="S47">
         <f t="shared" si="24"/>
-        <v>1026.7894189189187</v>
-      </c>
-      <c r="D47">
+        <v>236.22842342342346</v>
+      </c>
+      <c r="T47">
         <f t="shared" si="24"/>
-        <v>601.71266216216213</v>
-      </c>
-      <c r="E47">
+        <v>213.78345945945949</v>
+      </c>
+      <c r="U47">
         <f t="shared" si="24"/>
-        <v>422.53351351351353</v>
-      </c>
-      <c r="F47">
+        <v>224.46452252252249</v>
+      </c>
+      <c r="V47">
         <f t="shared" si="24"/>
-        <v>329.33004954954959</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="24"/>
-        <v>265.64431081081085</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="24"/>
-        <v>261.16995945945945</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="24"/>
-        <v>238.5580315315315</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="24"/>
-        <v>201.73480180180178</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="24"/>
-        <v>221.89371621621621</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="24"/>
-        <v>227.17479279279274</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="24"/>
-        <v>203.91796846846847</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="24"/>
-        <v>222.83598198198203</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="24"/>
-        <v>225.61609909909907</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="24"/>
-        <v>226.37981981981986</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="24"/>
-        <v>211.43523423423426</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="24"/>
-        <v>226.26816216216218</v>
-      </c>
-      <c r="S47">
-        <f t="shared" si="23"/>
-        <v>236.22842342342346</v>
-      </c>
-      <c r="T47">
-        <f t="shared" si="23"/>
-        <v>213.78345945945949</v>
-      </c>
-      <c r="U47">
-        <f t="shared" si="23"/>
-        <v>224.46452252252249</v>
-      </c>
-      <c r="V47">
-        <f t="shared" si="23"/>
         <v>227.44583783783784</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="8">
+      <c r="A48" s="8"/>
+      <c r="B48" s="7">
         <v>100000</v>
       </c>
       <c r="C48">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>10275.559689189187</v>
       </c>
       <c r="D48">
@@ -31911,75 +32515,75 @@
         <v>6007.672121621622</v>
       </c>
       <c r="E48">
+        <f t="shared" si="25"/>
+        <v>4210.1551351351354</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="25"/>
+        <v>3283.7759954954959</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="25"/>
+        <v>2632.4416081081081</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="25"/>
+        <v>2588.8050945945943</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="25"/>
+        <v>2250.8418153153152</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="25"/>
+        <v>1986.9510180180177</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="25"/>
+        <v>2153.3396621621623</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="25"/>
+        <v>2236.3099279279277</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="25"/>
+        <v>2003.6341846846847</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="25"/>
+        <v>2192.67381981982</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="25"/>
+        <v>2223.5079909909909</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="25"/>
+        <v>2227.758198198198</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="25"/>
+        <v>2077.5433423423419</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="25"/>
+        <v>2226.7276216216219</v>
+      </c>
+      <c r="S48">
         <f t="shared" si="24"/>
-        <v>4210.1551351351354</v>
-      </c>
-      <c r="F48">
+        <v>2325.0392342342343</v>
+      </c>
+      <c r="T48">
         <f t="shared" si="24"/>
-        <v>3283.7759954954959</v>
-      </c>
-      <c r="G48">
+        <v>2098.9185945945947</v>
+      </c>
+      <c r="U48">
         <f t="shared" si="24"/>
-        <v>2632.4416081081081</v>
-      </c>
-      <c r="H48">
+        <v>2205.1672252252247</v>
+      </c>
+      <c r="V48">
         <f t="shared" si="24"/>
-        <v>2588.8050945945943</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="24"/>
-        <v>2250.8418153153152</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="24"/>
-        <v>1986.9510180180177</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="24"/>
-        <v>2153.3396621621623</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="24"/>
-        <v>2236.3099279279277</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="24"/>
-        <v>2003.6341846846847</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="24"/>
-        <v>2192.67381981982</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="24"/>
-        <v>2223.5079909909909</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="24"/>
-        <v>2227.758198198198</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="24"/>
-        <v>2077.5433423423419</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="24"/>
-        <v>2226.7276216216219</v>
-      </c>
-      <c r="S48">
-        <f t="shared" si="23"/>
-        <v>2325.0392342342343</v>
-      </c>
-      <c r="T48">
-        <f t="shared" si="23"/>
-        <v>2098.9185945945947</v>
-      </c>
-      <c r="U48">
-        <f t="shared" si="23"/>
-        <v>2205.1672252252247</v>
-      </c>
-      <c r="V48">
-        <f t="shared" si="23"/>
         <v>2233.9863783783785</v>
       </c>
     </row>

--- a/benchmarks/Performance.xlsx
+++ b/benchmarks/Performance.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ala/Documents/Thesis/mgr/Msc-Maciek/parallel-wiki-classifier/benchmarks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maciek/Repos/pwc/benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="VM-impr" sheetId="3" r:id="rId3"/>
     <sheet name="VM-impr (2)" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -887,11 +887,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2127197088"/>
-        <c:axId val="-2143725712"/>
+        <c:axId val="978186064"/>
+        <c:axId val="981819312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127197088"/>
+        <c:axId val="978186064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143725712"/>
+        <c:crossAx val="981819312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1002,7 +1002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143725712"/>
+        <c:axId val="981819312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1113,7 +1113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127197088"/>
+        <c:crossAx val="978186064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1232,7 +1232,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> clusterization</a:t>
+              <a:t> clustering</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1935,11 +1935,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2128401792"/>
-        <c:axId val="-2127658400"/>
+        <c:axId val="982705104"/>
+        <c:axId val="982713872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2128401792"/>
+        <c:axId val="982705104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,7 +2043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127658400"/>
+        <c:crossAx val="982713872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2051,7 +2051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127658400"/>
+        <c:axId val="982713872"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2164,7 +2164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128401792"/>
+        <c:crossAx val="982705104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2986,11 +2986,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2126241968"/>
-        <c:axId val="-2126240208"/>
+        <c:axId val="982795616"/>
+        <c:axId val="982804384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2126241968"/>
+        <c:axId val="982795616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3094,7 +3094,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126240208"/>
+        <c:crossAx val="982804384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3102,7 +3102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126240208"/>
+        <c:axId val="982804384"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3215,7 +3215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126241968"/>
+        <c:crossAx val="982795616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4037,11 +4037,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2127155136"/>
-        <c:axId val="-2127144656"/>
+        <c:axId val="982886112"/>
+        <c:axId val="982894880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127155136"/>
+        <c:axId val="982886112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4145,7 +4145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127144656"/>
+        <c:crossAx val="982894880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4153,7 +4153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127144656"/>
+        <c:axId val="982894880"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4266,7 +4266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127155136"/>
+        <c:crossAx val="982886112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5085,11 +5085,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2127676944"/>
-        <c:axId val="-2128391168"/>
+        <c:axId val="982976720"/>
+        <c:axId val="982985488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127676944"/>
+        <c:axId val="982976720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5193,7 +5193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128391168"/>
+        <c:crossAx val="982985488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5201,7 +5201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128391168"/>
+        <c:axId val="982985488"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5315,7 +5315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127676944"/>
+        <c:crossAx val="982976720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6137,11 +6137,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2127528560"/>
-        <c:axId val="-2127534784"/>
+        <c:axId val="983064848"/>
+        <c:axId val="983073616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127528560"/>
+        <c:axId val="983064848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6245,7 +6245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127534784"/>
+        <c:crossAx val="983073616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6253,7 +6253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127534784"/>
+        <c:axId val="983073616"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -6367,7 +6367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127528560"/>
+        <c:crossAx val="983064848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7100,11 +7100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2129013088"/>
-        <c:axId val="-2140990384"/>
+        <c:axId val="981964000"/>
+        <c:axId val="981973008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2129013088"/>
+        <c:axId val="981964000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7207,7 +7207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140990384"/>
+        <c:crossAx val="981973008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7215,7 +7215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140990384"/>
+        <c:axId val="981973008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7326,7 +7326,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129013088"/>
+        <c:crossAx val="981964000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8058,11 +8058,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2140403104"/>
-        <c:axId val="-2141085632"/>
+        <c:axId val="982048224"/>
+        <c:axId val="982057232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2140403104"/>
+        <c:axId val="982048224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8165,7 +8165,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141085632"/>
+        <c:crossAx val="982057232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8173,7 +8173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141085632"/>
+        <c:axId val="982057232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8284,7 +8284,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140403104"/>
+        <c:crossAx val="982048224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9015,11 +9015,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2128932704"/>
-        <c:axId val="-2143704352"/>
+        <c:axId val="982133504"/>
+        <c:axId val="982142512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2128932704"/>
+        <c:axId val="982133504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9122,7 +9122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143704352"/>
+        <c:crossAx val="982142512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9130,7 +9130,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143704352"/>
+        <c:axId val="982142512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9241,7 +9241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128932704"/>
+        <c:crossAx val="982133504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9972,11 +9972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2127385232"/>
-        <c:axId val="-2127400144"/>
+        <c:axId val="982217408"/>
+        <c:axId val="982226416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127385232"/>
+        <c:axId val="982217408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10079,7 +10079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127400144"/>
+        <c:crossAx val="982226416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10087,7 +10087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127400144"/>
+        <c:axId val="982226416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10198,7 +10198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127385232"/>
+        <c:crossAx val="982217408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10926,11 +10926,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2126804832"/>
-        <c:axId val="-2126663664"/>
+        <c:axId val="982304080"/>
+        <c:axId val="982313088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2126804832"/>
+        <c:axId val="982304080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11033,7 +11033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126663664"/>
+        <c:crossAx val="982313088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11041,7 +11041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126663664"/>
+        <c:axId val="982313088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11152,7 +11152,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126804832"/>
+        <c:crossAx val="982304080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11883,11 +11883,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2126564192"/>
-        <c:axId val="-2126558000"/>
+        <c:axId val="982388016"/>
+        <c:axId val="982397024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2126564192"/>
+        <c:axId val="982388016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11990,7 +11990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126558000"/>
+        <c:crossAx val="982397024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11998,7 +11998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126558000"/>
+        <c:axId val="982397024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12109,7 +12109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126564192"/>
+        <c:crossAx val="982388016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12931,11 +12931,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2143840544"/>
-        <c:axId val="-2140172224"/>
+        <c:axId val="982519744"/>
+        <c:axId val="982528512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2143840544"/>
+        <c:axId val="982519744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13039,7 +13039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140172224"/>
+        <c:crossAx val="982528512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13047,7 +13047,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140172224"/>
+        <c:axId val="982528512"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -13160,7 +13160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143840544"/>
+        <c:crossAx val="982519744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13983,11 +13983,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2123826272"/>
-        <c:axId val="-2127678784"/>
+        <c:axId val="982614208"/>
+        <c:axId val="982622976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2123826272"/>
+        <c:axId val="982614208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14091,7 +14091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127678784"/>
+        <c:crossAx val="982622976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14099,7 +14099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127678784"/>
+        <c:axId val="982622976"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -14212,7 +14212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123826272"/>
+        <c:crossAx val="982614208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28804,7 +28804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T2" workbookViewId="0">
       <selection activeCell="AM43" sqref="AM43"/>
     </sheetView>
   </sheetViews>
